--- a/config/excel/Talent.xlsx
+++ b/config/excel/Talent.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZG\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{99B65D18-1C53-4E22-9044-F88B1554E42B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C5A4F-42B6-43C2-A3A1-BFA0900C37F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talent" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -32,40 +31,137 @@
     <t>天赋id</t>
   </si>
   <si>
-    <t>英雄id</t>
-  </si>
-  <si>
-    <t>星级</t>
-  </si>
-  <si>
-    <t>前置天赋</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>被动技能</t>
+    <t>天赋名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>子类型</t>
+  </si>
+  <si>
+    <t>天赋最大等级</t>
+  </si>
+  <si>
+    <t>拥有者id</t>
+  </si>
+  <si>
+    <t>层级</t>
+  </si>
+  <si>
+    <t>上一层天赋总等级限制</t>
+  </si>
+  <si>
+    <t>前置天赋1</t>
+  </si>
+  <si>
+    <t>前置天赋等级1</t>
+  </si>
+  <si>
+    <t>前置天赋2</t>
+  </si>
+  <si>
+    <t>前置天赋等级2</t>
+  </si>
+  <si>
+    <t>属性1</t>
+  </si>
+  <si>
+    <t>属性2</t>
+  </si>
+  <si>
+    <t>属性3</t>
+  </si>
+  <si>
+    <t>属性4</t>
+  </si>
+  <si>
+    <t>属性5</t>
+  </si>
+  <si>
+    <t>天赋等级对应的属性</t>
+  </si>
+  <si>
+    <t>被动技能1</t>
+  </si>
+  <si>
+    <t>被动技能2</t>
+  </si>
+  <si>
+    <t>被动技能3</t>
+  </si>
+  <si>
+    <t>被动技能4</t>
+  </si>
+  <si>
+    <t>被动技能5</t>
+  </si>
+  <si>
+    <t>天赋等级对应的被动技能id</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
+    <t>0:英雄天赋
+1:副本天赋</t>
+  </si>
+  <si>
+    <t>0:攻击系
+1:防御系
+2:功能系</t>
+  </si>
+  <si>
+    <t>英雄天赋：英雄id
+副本天赋：副本id</t>
+  </si>
+  <si>
+    <t>上一层激活天赋总等级限制</t>
+  </si>
+  <si>
+    <t>此列由前5列自动生成，不用填写</t>
+  </si>
+  <si>
     <t>导出字段</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>heroTypeId</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>prevTalentId</t>
-  </si>
-  <si>
-    <t>attId</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>subType</t>
+  </si>
+  <si>
+    <t>maxLevel</t>
+  </si>
+  <si>
+    <t>ownerId</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>prevStepLevelLimit</t>
+  </si>
+  <si>
+    <t>prevTalentId1</t>
+  </si>
+  <si>
+    <t>prevTalentLevel1</t>
+  </si>
+  <si>
+    <t>prevTalentId2</t>
+  </si>
+  <si>
+    <t>prevTalentLevel2</t>
+  </si>
+  <si>
+    <t>attIds</t>
   </si>
   <si>
     <t>passiveSkillId</t>
@@ -74,13 +170,46 @@
     <t>字段描述</t>
   </si>
   <si>
-    <t>所属星级</t>
-  </si>
-  <si>
-    <t>前置天赋id</t>
-  </si>
-  <si>
-    <t>属性id</t>
+    <t>天赋类型</t>
+  </si>
+  <si>
+    <t>所属层级</t>
+  </si>
+  <si>
+    <t>前置天赋id1</t>
+  </si>
+  <si>
+    <t>前置天赋id2</t>
+  </si>
+  <si>
+    <t>属性id1</t>
+  </si>
+  <si>
+    <t>属性id2</t>
+  </si>
+  <si>
+    <t>属性id3</t>
+  </si>
+  <si>
+    <t>属性id4</t>
+  </si>
+  <si>
+    <t>属性id5</t>
+  </si>
+  <si>
+    <t>被动技能id1</t>
+  </si>
+  <si>
+    <t>被动技能id2</t>
+  </si>
+  <si>
+    <t>被动技能id3</t>
+  </si>
+  <si>
+    <t>被动技能id4</t>
+  </si>
+  <si>
+    <t>被动技能id5</t>
   </si>
   <si>
     <t>被动技能id</t>
@@ -93,13 +222,27 @@
   </si>
   <si>
     <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>costId</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋升级消耗ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,17 +255,47 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +308,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -226,6 +417,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0"/>
       </left>
       <right style="thin">
@@ -254,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,6 +489,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,6 +505,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -316,15 +553,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:H62" totalsRowShown="0">
-  <autoFilter ref="C1:H62" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:V62" totalsRowShown="0">
+  <autoFilter ref="C1:V62" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="天赋id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="英雄id"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="星级"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="前置天赋"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="属性"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="被动技能"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="天赋名"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="类型"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="子类型"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="天赋最大等级"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="天赋升级消耗ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="拥有者id"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="层级"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="上一层天赋总等级限制"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="前置天赋1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="前置天赋等级1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="前置天赋2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="前置天赋等级2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="属性1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="属性2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="属性3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="属性4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="属性5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="天赋等级对应的属性">
+      <calculatedColumnFormula>P2&amp;","&amp;Q2&amp;","&amp;R2&amp;","&amp;S2&amp;","&amp;T2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="被动技能1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -588,24 +841,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51:H62"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="7" width="11.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
+    <col min="13" max="15" width="15.375" style="1" customWidth="1"/>
+    <col min="16" max="20" width="11.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.75" style="1" customWidth="1"/>
+    <col min="22" max="26" width="12.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="26.875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,57 +880,182 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="42.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
@@ -676,1180 +1063,4485 @@
       <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="V4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="7">
         <v>1</v>
       </c>
       <c r="H7" s="7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
+      <c r="N7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="12">
+        <v>1</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="20" t="str">
+        <f>P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7</f>
+        <v>1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="23" t="str">
+        <f>V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7</f>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
         <v>2</v>
       </c>
-      <c r="H8" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="20" t="str">
+        <f t="shared" ref="U8:U39" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
+        <v>2,-1,-1,-1,-1</v>
+      </c>
+      <c r="V8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="23" t="str">
+        <f t="shared" ref="AA8:AA39" si="1">V8&amp;","&amp;W8&amp;","&amp;X8&amp;","&amp;Y8&amp;","&amp;Z8</f>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="14">
+        <v>1</v>
+      </c>
+      <c r="P9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V9" s="7">
+        <v>1</v>
+      </c>
+      <c r="W9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="C10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="K10" s="14">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V10" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="W10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>2,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="C11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
+      <c r="N11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1</v>
+      </c>
+      <c r="P11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V11" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="W11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>3,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="C12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="1">
+      <c r="K12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V12" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="W12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>4,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="C13" s="7">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="1">
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V13" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="W13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>5,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="C14" s="7">
         <v>8</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="1">
+      <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="12">
+        <v>1</v>
+      </c>
+      <c r="P14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V14" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="W14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>6,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="C15" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
         <v>7</v>
       </c>
-      <c r="G15" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="M15" s="14">
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="14">
+        <v>1</v>
+      </c>
+      <c r="P15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V15" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="W15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>7,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="K16" s="14">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
         <v>8</v>
       </c>
-      <c r="G16" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="M16" s="12">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="12">
+        <v>1</v>
+      </c>
+      <c r="P16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V16" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>8,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27">
       <c r="C17" s="7">
         <v>11</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="F17" s="1">
+      <c r="K17" s="12">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
         <v>9</v>
       </c>
-      <c r="G17" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="M17" s="12">
+        <v>1</v>
+      </c>
+      <c r="N17" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="12">
+        <v>1</v>
+      </c>
+      <c r="P17" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V17" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>9,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
       <c r="C18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="1">
+      <c r="K18" s="14">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
         <v>10</v>
       </c>
-      <c r="G18" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="14">
+        <v>1</v>
+      </c>
+      <c r="P18" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V18" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>10,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27">
       <c r="C19" s="7">
         <v>13</v>
       </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
         <v>7</v>
       </c>
-      <c r="F19" s="1">
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
         <v>11</v>
       </c>
-      <c r="G19" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="M19" s="12">
+        <v>1</v>
+      </c>
+      <c r="N19" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="12">
+        <v>1</v>
+      </c>
+      <c r="P19" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V19" s="7">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>11,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27">
       <c r="C20" s="7">
         <v>14</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
         <v>7</v>
       </c>
-      <c r="F20" s="1">
+      <c r="K20" s="14">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
         <v>12</v>
       </c>
-      <c r="G20" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="12">
+        <v>1</v>
+      </c>
+      <c r="P20" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V20" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>12,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27">
       <c r="C21" s="7">
         <v>15</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="11">
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>1</v>
+      </c>
+      <c r="L21" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="14">
+        <v>1</v>
+      </c>
+      <c r="N21" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="14">
+        <v>1</v>
+      </c>
+      <c r="P21" s="12">
         <v>3</v>
       </c>
-      <c r="H21" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="Q21" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S21" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>3,-1,-1,-1,-1</v>
+      </c>
+      <c r="V21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27">
       <c r="C22" s="7">
         <v>16</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="7">
         <v>2</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="11">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14">
+        <v>1</v>
+      </c>
+      <c r="L22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1</v>
+      </c>
+      <c r="N22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="12">
+        <v>1</v>
+      </c>
+      <c r="P22" s="12">
         <v>4</v>
       </c>
-      <c r="H22" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="Q22" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S22" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>4,-1,-1,-1,-1</v>
+      </c>
+      <c r="V22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27">
       <c r="C23" s="7">
         <v>17</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="J23" s="1">
         <v>2</v>
       </c>
-      <c r="F23" s="1">
+      <c r="K23" s="12">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
         <v>15</v>
       </c>
-      <c r="G23" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="M23" s="12">
+        <v>1</v>
+      </c>
+      <c r="N23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="12">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S23" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V23" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA23" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>15,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27">
       <c r="C24" s="7">
         <v>18</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="J24" s="1">
         <v>2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="K24" s="14">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
         <v>16</v>
       </c>
-      <c r="G24" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="M24" s="14">
+        <v>1</v>
+      </c>
+      <c r="N24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="14">
+        <v>1</v>
+      </c>
+      <c r="P24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S24" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V24" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA24" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>16,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27">
       <c r="C25" s="7">
         <v>19</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="K25" s="12">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
         <v>17</v>
       </c>
-      <c r="G25" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="M25" s="12">
+        <v>1</v>
+      </c>
+      <c r="N25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="12">
+        <v>1</v>
+      </c>
+      <c r="P25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S25" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V25" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA25" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>17,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27">
       <c r="C26" s="7">
         <v>20</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="1">
+      <c r="K26" s="14">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
         <v>18</v>
       </c>
-      <c r="G26" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="M26" s="12">
+        <v>1</v>
+      </c>
+      <c r="N26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="12">
+        <v>1</v>
+      </c>
+      <c r="P26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S26" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V26" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>18,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27">
       <c r="C27" s="7">
         <v>21</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="7">
         <v>2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="J27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="K27" s="12">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
         <v>19</v>
       </c>
-      <c r="G27" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="M27" s="14">
+        <v>1</v>
+      </c>
+      <c r="N27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="14">
+        <v>1</v>
+      </c>
+      <c r="P27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S27" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V27" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA27" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>19,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27">
       <c r="C28" s="7">
         <v>22</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="J28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="1">
+      <c r="K28" s="14">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
         <v>20</v>
       </c>
-      <c r="G28" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="M28" s="12">
+        <v>1</v>
+      </c>
+      <c r="N28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="12">
+        <v>1</v>
+      </c>
+      <c r="P28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S28" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V28" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA28" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>20,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27">
       <c r="C29" s="7">
         <v>23</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="J29" s="1">
         <v>5</v>
       </c>
-      <c r="F29" s="1">
+      <c r="K29" s="12">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
         <v>21</v>
       </c>
-      <c r="G29" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="M29" s="12">
+        <v>1</v>
+      </c>
+      <c r="N29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="12">
+        <v>1</v>
+      </c>
+      <c r="P29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S29" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V29" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA29" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>21,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27">
       <c r="C30" s="7">
         <v>24</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="7">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="J30" s="1">
         <v>5</v>
       </c>
-      <c r="F30" s="1">
+      <c r="K30" s="14">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
         <v>22</v>
       </c>
-      <c r="G30" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="M30" s="14">
+        <v>1</v>
+      </c>
+      <c r="N30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="14">
+        <v>1</v>
+      </c>
+      <c r="P30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S30" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V30" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA30" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>22,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27">
       <c r="C31" s="7">
         <v>25</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="7">
         <v>2</v>
       </c>
-      <c r="E31" s="1">
+      <c r="J31" s="1">
         <v>6</v>
       </c>
-      <c r="F31" s="1">
+      <c r="K31" s="12">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
         <v>23</v>
       </c>
-      <c r="G31" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="M31" s="12">
+        <v>1</v>
+      </c>
+      <c r="N31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="12">
+        <v>1</v>
+      </c>
+      <c r="P31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V31" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>23,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27">
       <c r="C32" s="7">
         <v>26</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="7">
         <v>2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="J32" s="1">
         <v>6</v>
       </c>
-      <c r="F32" s="1">
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
         <v>24</v>
       </c>
-      <c r="G32" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="M32" s="12">
+        <v>1</v>
+      </c>
+      <c r="N32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="12">
+        <v>1</v>
+      </c>
+      <c r="P32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S32" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V32" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>24,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:27">
       <c r="C33" s="7">
         <v>27</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="7">
         <v>2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="J33" s="1">
         <v>7</v>
       </c>
-      <c r="F33" s="1">
+      <c r="K33" s="12">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
         <v>25</v>
       </c>
-      <c r="G33" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="M33" s="14">
+        <v>1</v>
+      </c>
+      <c r="N33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="14">
+        <v>1</v>
+      </c>
+      <c r="P33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S33" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T33" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V33" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>25,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:27">
       <c r="C34" s="7">
         <v>28</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="7">
         <v>2</v>
       </c>
-      <c r="E34" s="1">
+      <c r="J34" s="1">
         <v>7</v>
       </c>
-      <c r="F34" s="1">
+      <c r="K34" s="14">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
         <v>26</v>
       </c>
-      <c r="G34" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="M34" s="12">
+        <v>1</v>
+      </c>
+      <c r="N34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="12">
+        <v>1</v>
+      </c>
+      <c r="P34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V34" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>26,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:27">
       <c r="C35" s="7">
         <v>29</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="7">
         <v>3</v>
       </c>
-      <c r="E35" s="11">
-        <v>1</v>
-      </c>
-      <c r="F35" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12">
+        <v>1</v>
+      </c>
+      <c r="L35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="12">
+        <v>1</v>
+      </c>
+      <c r="N35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O35" s="12">
+        <v>1</v>
+      </c>
+      <c r="P35" s="12">
         <v>5</v>
       </c>
-      <c r="H35" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="Q35" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T35" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>5,-1,-1,-1,-1</v>
+      </c>
+      <c r="V35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:27">
       <c r="C36" s="7">
         <v>30</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="7">
         <v>3</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="14">
+        <v>1</v>
+      </c>
+      <c r="L36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="14">
+        <v>1</v>
+      </c>
+      <c r="N36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O36" s="14">
+        <v>1</v>
+      </c>
+      <c r="P36" s="12">
         <v>6</v>
       </c>
-      <c r="H36" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="Q36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S36" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T36" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>6,-1,-1,-1,-1</v>
+      </c>
+      <c r="V36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:27">
       <c r="C37" s="7">
         <v>31</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="7">
         <v>3</v>
       </c>
-      <c r="E37" s="1">
+      <c r="J37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="K37" s="12">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
         <v>29</v>
       </c>
-      <c r="G37" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="M37" s="12">
+        <v>1</v>
+      </c>
+      <c r="N37" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="12">
+        <v>1</v>
+      </c>
+      <c r="P37" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S37" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U37" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V37" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>29,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:27">
       <c r="C38" s="7">
         <v>32</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="7">
         <v>3</v>
       </c>
-      <c r="E38" s="1">
+      <c r="J38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="1">
+      <c r="K38" s="14">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
         <v>30</v>
       </c>
-      <c r="G38" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="M38" s="12">
+        <v>1</v>
+      </c>
+      <c r="N38" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O38" s="12">
+        <v>1</v>
+      </c>
+      <c r="P38" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S38" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T38" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U38" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V38" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>30,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:27">
       <c r="C39" s="7">
         <v>33</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="7">
         <v>3</v>
       </c>
-      <c r="E39" s="1">
+      <c r="J39" s="1">
         <v>3</v>
       </c>
-      <c r="F39" s="1">
+      <c r="K39" s="12">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
         <v>31</v>
       </c>
-      <c r="G39" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="M39" s="14">
+        <v>1</v>
+      </c>
+      <c r="N39" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O39" s="14">
+        <v>1</v>
+      </c>
+      <c r="P39" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T39" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V39" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>31,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:27">
       <c r="C40" s="7">
         <v>34</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="7">
         <v>3</v>
       </c>
-      <c r="E40" s="1">
+      <c r="J40" s="1">
         <v>3</v>
       </c>
-      <c r="F40" s="1">
+      <c r="K40" s="14">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
         <v>32</v>
       </c>
-      <c r="G40" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="M40" s="12">
+        <v>1</v>
+      </c>
+      <c r="N40" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O40" s="12">
+        <v>1</v>
+      </c>
+      <c r="P40" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S40" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T40" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U40" s="20" t="str">
+        <f t="shared" ref="U40:U62" si="2">P40&amp;","&amp;Q40&amp;","&amp;R40&amp;","&amp;S40&amp;","&amp;T40</f>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V40" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA40" s="23" t="str">
+        <f t="shared" ref="AA40:AA62" si="3">V40&amp;","&amp;W40&amp;","&amp;X40&amp;","&amp;Y40&amp;","&amp;Z40</f>
+        <v>32,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27">
       <c r="C41" s="7">
         <v>35</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="7">
         <v>3</v>
       </c>
-      <c r="E41" s="1">
+      <c r="J41" s="1">
         <v>4</v>
       </c>
-      <c r="F41" s="1">
+      <c r="K41" s="12">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
         <v>33</v>
       </c>
-      <c r="G41" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="M41" s="12">
+        <v>1</v>
+      </c>
+      <c r="N41" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O41" s="12">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S41" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T41" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U41" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V41" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA41" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>33,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:27">
       <c r="C42" s="7">
         <v>36</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="7">
         <v>3</v>
       </c>
-      <c r="E42" s="1">
+      <c r="J42" s="1">
         <v>4</v>
       </c>
-      <c r="F42" s="1">
+      <c r="K42" s="14">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
         <v>34</v>
       </c>
-      <c r="G42" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="M42" s="14">
+        <v>1</v>
+      </c>
+      <c r="N42" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O42" s="14">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S42" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T42" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U42" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V42" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA42" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>34,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:27">
       <c r="C43" s="7">
         <v>37</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I43" s="7">
         <v>3</v>
       </c>
-      <c r="E43" s="1">
+      <c r="J43" s="1">
         <v>5</v>
       </c>
-      <c r="F43" s="1">
+      <c r="K43" s="12">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
         <v>35</v>
       </c>
-      <c r="G43" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="M43" s="12">
+        <v>1</v>
+      </c>
+      <c r="N43" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O43" s="12">
+        <v>1</v>
+      </c>
+      <c r="P43" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R43" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S43" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T43" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U43" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V43" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA43" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>35,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:27">
       <c r="C44" s="7">
         <v>38</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I44" s="7">
         <v>3</v>
       </c>
-      <c r="E44" s="1">
+      <c r="J44" s="1">
         <v>5</v>
       </c>
-      <c r="F44" s="1">
+      <c r="K44" s="14">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
         <v>36</v>
       </c>
-      <c r="G44" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="M44" s="12">
+        <v>1</v>
+      </c>
+      <c r="N44" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O44" s="12">
+        <v>1</v>
+      </c>
+      <c r="P44" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R44" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S44" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T44" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V44" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA44" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>36,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27">
       <c r="C45" s="7">
         <v>39</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="7">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="7">
         <v>3</v>
       </c>
-      <c r="E45" s="1">
+      <c r="J45" s="1">
         <v>6</v>
       </c>
-      <c r="F45" s="1">
+      <c r="K45" s="12">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
         <v>37</v>
       </c>
-      <c r="G45" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="1">
+      <c r="M45" s="14">
+        <v>1</v>
+      </c>
+      <c r="N45" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="14">
+        <v>1</v>
+      </c>
+      <c r="P45" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U45" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V45" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA45" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>37,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:27">
       <c r="C46" s="7">
         <v>40</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="7">
         <v>3</v>
       </c>
-      <c r="E46" s="1">
+      <c r="J46" s="1">
         <v>6</v>
       </c>
-      <c r="F46" s="1">
+      <c r="K46" s="14">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
         <v>38</v>
       </c>
-      <c r="G46" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="M46" s="12">
+        <v>1</v>
+      </c>
+      <c r="N46" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O46" s="12">
+        <v>1</v>
+      </c>
+      <c r="P46" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U46" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V46" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA46" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>38,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:27">
       <c r="C47" s="7">
         <v>41</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I47" s="7">
         <v>3</v>
       </c>
-      <c r="E47" s="1">
+      <c r="J47" s="1">
         <v>7</v>
       </c>
-      <c r="F47" s="1">
+      <c r="K47" s="12">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
         <v>39</v>
       </c>
-      <c r="G47" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H47" s="1">
+      <c r="M47" s="12">
+        <v>1</v>
+      </c>
+      <c r="N47" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O47" s="12">
+        <v>1</v>
+      </c>
+      <c r="P47" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T47" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U47" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V47" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA47" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>39,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27">
       <c r="C48" s="7">
         <v>42</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I48" s="7">
         <v>3</v>
       </c>
-      <c r="E48" s="13">
+      <c r="J48" s="15">
         <v>7</v>
       </c>
-      <c r="F48" s="1">
+      <c r="K48" s="14">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
         <v>40</v>
       </c>
-      <c r="G48" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H48" s="1">
+      <c r="M48" s="14">
+        <v>1</v>
+      </c>
+      <c r="N48" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O48" s="14">
+        <v>1</v>
+      </c>
+      <c r="P48" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R48" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S48" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T48" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U48" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V48" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA48" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>40,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27">
       <c r="C49" s="7">
         <v>43</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>1</v>
+      </c>
+      <c r="H49" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I49" s="7">
         <v>4</v>
       </c>
-      <c r="E49" s="11">
-        <v>1</v>
-      </c>
-      <c r="F49" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G49" s="11">
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+      <c r="K49" s="12">
+        <v>1</v>
+      </c>
+      <c r="L49" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="12">
+        <v>1</v>
+      </c>
+      <c r="N49" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O49" s="12">
+        <v>1</v>
+      </c>
+      <c r="P49" s="12">
         <v>7</v>
       </c>
-      <c r="H49" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="Q49" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R49" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S49" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T49" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U49" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>7,-1,-1,-1,-1</v>
+      </c>
+      <c r="V49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA49" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27">
       <c r="C50" s="7">
         <v>44</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I50" s="7">
         <v>4</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="11">
-        <v>-1</v>
-      </c>
-      <c r="G50" s="11">
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="14">
+        <v>1</v>
+      </c>
+      <c r="L50" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="12">
+        <v>1</v>
+      </c>
+      <c r="N50" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O50" s="12">
+        <v>1</v>
+      </c>
+      <c r="P50" s="12">
         <v>8</v>
       </c>
-      <c r="H50" s="7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="Q50" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R50" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S50" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T50" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U50" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>8,-1,-1,-1,-1</v>
+      </c>
+      <c r="V50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA50" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27">
       <c r="C51" s="7">
         <v>45</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I51" s="7">
         <v>4</v>
       </c>
-      <c r="E51" s="1">
+      <c r="J51" s="1">
         <v>2</v>
       </c>
-      <c r="F51" s="7">
+      <c r="K51" s="12">
+        <v>1</v>
+      </c>
+      <c r="L51" s="7">
         <v>43</v>
       </c>
-      <c r="G51" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H51" s="7">
+      <c r="M51" s="14">
+        <v>1</v>
+      </c>
+      <c r="N51" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O51" s="14">
+        <v>1</v>
+      </c>
+      <c r="P51" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R51" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S51" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T51" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U51" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V51" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA51" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>43,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27">
       <c r="C52" s="7">
         <v>46</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I52" s="7">
         <v>4</v>
       </c>
-      <c r="E52" s="1">
+      <c r="J52" s="1">
         <v>2</v>
       </c>
-      <c r="F52" s="7">
+      <c r="K52" s="14">
+        <v>1</v>
+      </c>
+      <c r="L52" s="7">
         <v>44</v>
       </c>
-      <c r="G52" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="M52" s="12">
+        <v>1</v>
+      </c>
+      <c r="N52" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O52" s="12">
+        <v>1</v>
+      </c>
+      <c r="P52" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R52" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S52" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T52" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U52" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V52" s="7">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA52" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>44,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27">
       <c r="C53" s="7">
         <v>47</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G53" s="7">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I53" s="7">
         <v>4</v>
       </c>
-      <c r="E53" s="1">
+      <c r="J53" s="1">
         <v>3</v>
       </c>
-      <c r="F53" s="7">
+      <c r="K53" s="12">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7">
         <v>45</v>
       </c>
-      <c r="G53" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H53" s="7">
+      <c r="M53" s="12">
+        <v>1</v>
+      </c>
+      <c r="N53" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O53" s="12">
+        <v>1</v>
+      </c>
+      <c r="P53" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R53" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S53" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T53" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U53" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V53" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA53" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>45,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27">
       <c r="C54" s="7">
         <v>48</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="7">
+        <v>1</v>
+      </c>
+      <c r="H54" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I54" s="7">
         <v>4</v>
       </c>
-      <c r="E54" s="1">
+      <c r="J54" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="7">
+      <c r="K54" s="14">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7">
         <v>46</v>
       </c>
-      <c r="G54" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H54" s="7">
+      <c r="M54" s="14">
+        <v>1</v>
+      </c>
+      <c r="N54" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O54" s="14">
+        <v>1</v>
+      </c>
+      <c r="P54" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R54" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S54" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T54" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U54" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V54" s="7">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA54" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>46,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27">
       <c r="C55" s="7">
         <v>49</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+      <c r="H55" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I55" s="7">
         <v>4</v>
       </c>
-      <c r="E55" s="1">
+      <c r="J55" s="1">
         <v>4</v>
       </c>
-      <c r="F55" s="7">
+      <c r="K55" s="12">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7">
         <v>47</v>
       </c>
-      <c r="G55" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H55" s="7">
+      <c r="M55" s="12">
+        <v>1</v>
+      </c>
+      <c r="N55" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O55" s="12">
+        <v>1</v>
+      </c>
+      <c r="P55" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R55" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S55" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T55" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U55" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V55" s="7">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA55" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>47,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:27">
       <c r="C56" s="7">
         <v>50</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I56" s="7">
         <v>4</v>
       </c>
-      <c r="E56" s="1">
+      <c r="J56" s="1">
         <v>4</v>
       </c>
-      <c r="F56" s="7">
+      <c r="K56" s="14">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7">
         <v>48</v>
       </c>
-      <c r="G56" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H56" s="7">
+      <c r="M56" s="12">
+        <v>1</v>
+      </c>
+      <c r="N56" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O56" s="12">
+        <v>1</v>
+      </c>
+      <c r="P56" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R56" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S56" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T56" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U56" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V56" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA56" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>48,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:27">
       <c r="C57" s="7">
         <v>51</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+      <c r="H57" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I57" s="7">
         <v>4</v>
       </c>
-      <c r="E57" s="1">
+      <c r="J57" s="1">
         <v>5</v>
       </c>
-      <c r="F57" s="7">
+      <c r="K57" s="12">
+        <v>1</v>
+      </c>
+      <c r="L57" s="7">
         <v>49</v>
       </c>
-      <c r="G57" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="7">
+      <c r="M57" s="14">
+        <v>1</v>
+      </c>
+      <c r="N57" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O57" s="14">
+        <v>1</v>
+      </c>
+      <c r="P57" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S57" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T57" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U57" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V57" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA57" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>49,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27">
       <c r="C58" s="7">
         <v>52</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I58" s="7">
         <v>4</v>
       </c>
-      <c r="E58" s="1">
+      <c r="J58" s="1">
         <v>5</v>
       </c>
-      <c r="F58" s="7">
+      <c r="K58" s="14">
+        <v>1</v>
+      </c>
+      <c r="L58" s="7">
         <v>50</v>
       </c>
-      <c r="G58" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H58" s="7">
+      <c r="M58" s="12">
+        <v>1</v>
+      </c>
+      <c r="N58" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O58" s="12">
+        <v>1</v>
+      </c>
+      <c r="P58" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R58" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S58" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T58" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U58" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V58" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA58" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>50,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27">
       <c r="C59" s="7">
         <v>53</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7">
+        <v>0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+      <c r="H59" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I59" s="7">
         <v>4</v>
       </c>
-      <c r="E59" s="1">
+      <c r="J59" s="1">
         <v>6</v>
       </c>
-      <c r="F59" s="7">
+      <c r="K59" s="12">
+        <v>1</v>
+      </c>
+      <c r="L59" s="7">
         <v>51</v>
       </c>
-      <c r="G59" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H59" s="7">
+      <c r="M59" s="12">
+        <v>1</v>
+      </c>
+      <c r="N59" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O59" s="12">
+        <v>1</v>
+      </c>
+      <c r="P59" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R59" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S59" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T59" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U59" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V59" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA59" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>51,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27">
       <c r="C60" s="7">
         <v>54</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="7">
         <v>4</v>
       </c>
-      <c r="E60" s="1">
+      <c r="J60" s="1">
         <v>6</v>
       </c>
-      <c r="F60" s="7">
+      <c r="K60" s="14">
+        <v>1</v>
+      </c>
+      <c r="L60" s="7">
         <v>52</v>
       </c>
-      <c r="G60" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H60" s="7">
+      <c r="M60" s="14">
+        <v>1</v>
+      </c>
+      <c r="N60" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O60" s="14">
+        <v>1</v>
+      </c>
+      <c r="P60" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R60" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S60" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T60" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U60" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V60" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA60" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>52,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27">
       <c r="C61" s="7">
         <v>55</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I61" s="7">
         <v>4</v>
       </c>
-      <c r="E61" s="1">
+      <c r="J61" s="1">
         <v>7</v>
       </c>
-      <c r="F61" s="7">
+      <c r="K61" s="12">
+        <v>1</v>
+      </c>
+      <c r="L61" s="7">
         <v>53</v>
       </c>
-      <c r="G61" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H61" s="7">
+      <c r="M61" s="12">
+        <v>1</v>
+      </c>
+      <c r="N61" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O61" s="12">
+        <v>1</v>
+      </c>
+      <c r="P61" s="12">
+        <v>-1</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R61" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S61" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T61" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U61" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V61" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="W61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA61" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>53,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27">
       <c r="C62" s="7">
         <v>56</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I62" s="7">
         <v>4</v>
       </c>
-      <c r="E62" s="13">
+      <c r="J62" s="15">
         <v>7</v>
       </c>
-      <c r="F62" s="7">
+      <c r="K62" s="14">
+        <v>1</v>
+      </c>
+      <c r="L62" s="7">
         <v>54</v>
       </c>
-      <c r="G62" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H62" s="7">
+      <c r="M62" s="12">
+        <v>1</v>
+      </c>
+      <c r="N62" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O62" s="12">
+        <v>1</v>
+      </c>
+      <c r="P62" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R62" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S62" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T62" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U62" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>-1,-1,-1,-1,-1</v>
+      </c>
+      <c r="V62" s="7">
         <v>54</v>
       </c>
+      <c r="W62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="X62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Y62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="Z62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AA62" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>54,-1,-1,-1,-1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/Talent.xlsx
+++ b/config/excel/Talent.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C5A4F-42B6-43C2-A3A1-BFA0900C37F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="32040" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Talent" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -41,6 +35,9 @@
   </si>
   <si>
     <t>天赋最大等级</t>
+  </si>
+  <si>
+    <t>天赋升级消耗ID</t>
   </si>
   <si>
     <t>拥有者id</t>
@@ -140,6 +137,9 @@
     <t>maxLevel</t>
   </si>
   <si>
+    <t>costId</t>
+  </si>
+  <si>
     <t>ownerId</t>
   </si>
   <si>
@@ -218,6 +218,9 @@
     <t>前后端</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>字段类型</t>
   </si>
   <si>
@@ -228,21 +231,19 @@
   </si>
   <si>
     <t>[]int32</t>
-  </si>
-  <si>
-    <t>costId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋升级消耗ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,14 +256,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -270,7 +276,6 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -283,19 +288,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,8 +467,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -456,11 +783,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,9 +1058,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,74 +1085,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:V62" totalsRowShown="0">
-  <autoFilter ref="C1:V62" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:V62" totalsRowShown="0">
+  <autoFilter ref="C1:V62"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="天赋id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="天赋名"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="类型"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="子类型"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="天赋最大等级"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="天赋升级消耗ID"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="拥有者id"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="层级"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="上一层天赋总等级限制"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="前置天赋1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="前置天赋等级1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="前置天赋2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="前置天赋等级2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="属性1"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="属性2"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="属性3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="属性4"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="属性5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="天赋等级对应的属性">
-      <calculatedColumnFormula>P2&amp;","&amp;Q2&amp;","&amp;R2&amp;","&amp;S2&amp;","&amp;T2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="被动技能1"/>
+    <tableColumn id="1" name="天赋id"/>
+    <tableColumn id="2" name="天赋名"/>
+    <tableColumn id="3" name="类型"/>
+    <tableColumn id="4" name="子类型"/>
+    <tableColumn id="5" name="天赋最大等级"/>
+    <tableColumn id="6" name="天赋升级消耗ID"/>
+    <tableColumn id="7" name="拥有者id"/>
+    <tableColumn id="8" name="层级"/>
+    <tableColumn id="9" name="上一层天赋总等级限制"/>
+    <tableColumn id="10" name="前置天赋1"/>
+    <tableColumn id="11" name="前置天赋等级1"/>
+    <tableColumn id="12" name="前置天赋2"/>
+    <tableColumn id="13" name="前置天赋等级2"/>
+    <tableColumn id="14" name="属性1"/>
+    <tableColumn id="15" name="属性2"/>
+    <tableColumn id="16" name="属性3"/>
+    <tableColumn id="17" name="属性4"/>
+    <tableColumn id="18" name="属性5"/>
+    <tableColumn id="19" name="天赋等级对应的属性"/>
+    <tableColumn id="20" name="被动技能1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,20 +1437,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AA62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -889,173 +1492,173 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>69</v>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" ht="42.75">
+    <row r="2" ht="50" spans="1:27">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>28</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="18" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="21" t="s">
-        <v>31</v>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="19" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="2:27">
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="L3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="M3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="19" t="s">
+      <c r="N3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="O3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
       <c r="AA3" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="2:27">
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
@@ -1064,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>5</v>
@@ -1072,158 +1675,160 @@
       <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>69</v>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="13" t="s">
+      <c r="K4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="M4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="O4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="Q4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="R4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" s="13" t="s">
+      <c r="S4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="T4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="U4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="W4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="X4" s="15" t="s">
         <v>61</v>
       </c>
+      <c r="Y4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="AA4" s="22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="2:27">
       <c r="B5" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
       <c r="AA5" s="22"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="2:27">
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
       <c r="AA6" s="22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" ht="16.8" spans="2:27">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1</v>
@@ -1244,40 +1849,40 @@
       <c r="I7" s="7">
         <v>1</v>
       </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1</v>
-      </c>
-      <c r="N7" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O7" s="12">
-        <v>1</v>
-      </c>
-      <c r="P7" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R7" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S7" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="20" t="str">
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="21" t="str">
         <f>P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7</f>
         <v>1,-1,-1,-1,-1</v>
       </c>
@@ -1296,12 +1901,12 @@
       <c r="Z7" s="7">
         <v>-1</v>
       </c>
-      <c r="AA7" s="23" t="str">
+      <c r="AA7" s="21" t="str">
         <f>V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7</f>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" ht="16.8" spans="3:27">
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -1315,7 +1920,7 @@
       <c r="G8" s="7">
         <v>1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="7">
         <v>-1</v>
       </c>
       <c r="I8" s="7">
@@ -1324,37 +1929,37 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="14">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1</v>
-      </c>
-      <c r="N8" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O8" s="12">
-        <v>1</v>
-      </c>
-      <c r="P8" s="12">
+      <c r="K8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14">
         <v>2</v>
       </c>
-      <c r="Q8" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="20" t="str">
+      <c r="Q8" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="21" t="str">
         <f t="shared" ref="U8:U39" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
         <v>2,-1,-1,-1,-1</v>
       </c>
@@ -1373,12 +1978,12 @@
       <c r="Z8" s="7">
         <v>-1</v>
       </c>
-      <c r="AA8" s="23" t="str">
+      <c r="AA8" s="21" t="str">
         <f t="shared" ref="AA8:AA39" si="1">V8&amp;","&amp;W8&amp;","&amp;X8&amp;","&amp;Y8&amp;","&amp;Z8</f>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" ht="16.8" spans="3:27">
       <c r="C9" s="7">
         <v>3</v>
       </c>
@@ -1392,7 +1997,7 @@
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="7">
         <v>-1</v>
       </c>
       <c r="I9" s="7">
@@ -1401,37 +2006,37 @@
       <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="14">
         <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="14">
-        <v>1</v>
-      </c>
-      <c r="N9" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="14">
-        <v>1</v>
-      </c>
-      <c r="P9" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R9" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="20" t="str">
+      <c r="M9" s="16">
+        <v>1</v>
+      </c>
+      <c r="N9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="16">
+        <v>1</v>
+      </c>
+      <c r="P9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -1450,12 +2055,12 @@
       <c r="Z9" s="7">
         <v>-1</v>
       </c>
-      <c r="AA9" s="23" t="str">
+      <c r="AA9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" ht="16.8" spans="3:27">
       <c r="C10" s="7">
         <v>4</v>
       </c>
@@ -1469,7 +2074,7 @@
       <c r="G10" s="7">
         <v>1</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="7">
         <v>-1</v>
       </c>
       <c r="I10" s="7">
@@ -1478,37 +2083,37 @@
       <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="16">
         <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>2</v>
       </c>
-      <c r="M10" s="12">
-        <v>1</v>
-      </c>
-      <c r="N10" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>1</v>
-      </c>
-      <c r="P10" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R10" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="20" t="str">
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1</v>
+      </c>
+      <c r="P10" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -1527,12 +2132,12 @@
       <c r="Z10" s="7">
         <v>-1</v>
       </c>
-      <c r="AA10" s="23" t="str">
+      <c r="AA10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>2,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" ht="16.8" spans="3:27">
       <c r="C11" s="7">
         <v>5</v>
       </c>
@@ -1546,7 +2151,7 @@
       <c r="G11" s="7">
         <v>1</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="7">
         <v>-1</v>
       </c>
       <c r="I11" s="7">
@@ -1555,37 +2160,37 @@
       <c r="J11" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="14">
         <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
       </c>
-      <c r="M11" s="12">
-        <v>1</v>
-      </c>
-      <c r="N11" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="12">
-        <v>1</v>
-      </c>
-      <c r="P11" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R11" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S11" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="20" t="str">
+      <c r="M11" s="14">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="14">
+        <v>1</v>
+      </c>
+      <c r="P11" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -1604,12 +2209,12 @@
       <c r="Z11" s="7">
         <v>-1</v>
       </c>
-      <c r="AA11" s="23" t="str">
+      <c r="AA11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>3,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" ht="16.8" spans="3:27">
       <c r="C12" s="7">
         <v>6</v>
       </c>
@@ -1623,7 +2228,7 @@
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="7">
         <v>-1</v>
       </c>
       <c r="I12" s="7">
@@ -1632,37 +2237,37 @@
       <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="16">
         <v>1</v>
       </c>
       <c r="L12" s="1">
         <v>4</v>
       </c>
-      <c r="M12" s="14">
-        <v>1</v>
-      </c>
-      <c r="N12" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="14">
-        <v>1</v>
-      </c>
-      <c r="P12" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R12" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="20" t="str">
+      <c r="M12" s="16">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="16">
+        <v>1</v>
+      </c>
+      <c r="P12" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -1681,12 +2286,12 @@
       <c r="Z12" s="7">
         <v>-1</v>
       </c>
-      <c r="AA12" s="23" t="str">
+      <c r="AA12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>4,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" ht="16.8" spans="3:27">
       <c r="C13" s="7">
         <v>7</v>
       </c>
@@ -1700,7 +2305,7 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="7">
         <v>-1</v>
       </c>
       <c r="I13" s="7">
@@ -1709,37 +2314,37 @@
       <c r="J13" s="1">
         <v>4</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="14">
         <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>5</v>
       </c>
-      <c r="M13" s="12">
-        <v>1</v>
-      </c>
-      <c r="N13" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="12">
-        <v>1</v>
-      </c>
-      <c r="P13" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R13" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S13" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="20" t="str">
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+      <c r="N13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -1758,12 +2363,12 @@
       <c r="Z13" s="7">
         <v>-1</v>
       </c>
-      <c r="AA13" s="23" t="str">
+      <c r="AA13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>5,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" ht="16.8" spans="3:27">
       <c r="C14" s="7">
         <v>8</v>
       </c>
@@ -1777,7 +2382,7 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="7">
         <v>-1</v>
       </c>
       <c r="I14" s="7">
@@ -1786,37 +2391,37 @@
       <c r="J14" s="1">
         <v>4</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="16">
         <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>6</v>
       </c>
-      <c r="M14" s="12">
-        <v>1</v>
-      </c>
-      <c r="N14" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O14" s="12">
-        <v>1</v>
-      </c>
-      <c r="P14" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R14" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S14" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T14" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U14" s="20" t="str">
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -1835,12 +2440,12 @@
       <c r="Z14" s="7">
         <v>-1</v>
       </c>
-      <c r="AA14" s="23" t="str">
+      <c r="AA14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>6,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" ht="16.8" spans="3:27">
       <c r="C15" s="7">
         <v>9</v>
       </c>
@@ -1854,7 +2459,7 @@
       <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="7">
         <v>-1</v>
       </c>
       <c r="I15" s="7">
@@ -1863,37 +2468,37 @@
       <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="14">
         <v>1</v>
       </c>
       <c r="L15" s="1">
         <v>7</v>
       </c>
-      <c r="M15" s="14">
-        <v>1</v>
-      </c>
-      <c r="N15" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="14">
-        <v>1</v>
-      </c>
-      <c r="P15" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R15" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S15" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="20" t="str">
+      <c r="M15" s="16">
+        <v>1</v>
+      </c>
+      <c r="N15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="16">
+        <v>1</v>
+      </c>
+      <c r="P15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -1912,12 +2517,12 @@
       <c r="Z15" s="7">
         <v>-1</v>
       </c>
-      <c r="AA15" s="23" t="str">
+      <c r="AA15" s="21" t="str">
         <f t="shared" si="1"/>
         <v>7,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" ht="16.8" spans="3:27">
       <c r="C16" s="7">
         <v>10</v>
       </c>
@@ -1931,7 +2536,7 @@
       <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="7">
         <v>-1</v>
       </c>
       <c r="I16" s="7">
@@ -1940,37 +2545,37 @@
       <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="16">
         <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>8</v>
       </c>
-      <c r="M16" s="12">
-        <v>1</v>
-      </c>
-      <c r="N16" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O16" s="12">
-        <v>1</v>
-      </c>
-      <c r="P16" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R16" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="20" t="str">
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="N16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1</v>
+      </c>
+      <c r="P16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -1989,12 +2594,12 @@
       <c r="Z16" s="7">
         <v>-1</v>
       </c>
-      <c r="AA16" s="23" t="str">
+      <c r="AA16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="17" spans="3:27">
+    <row r="17" ht="16.8" spans="3:27">
       <c r="C17" s="7">
         <v>11</v>
       </c>
@@ -2008,7 +2613,7 @@
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="7">
         <v>-1</v>
       </c>
       <c r="I17" s="7">
@@ -2017,37 +2622,37 @@
       <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="14">
         <v>1</v>
       </c>
       <c r="L17" s="1">
         <v>9</v>
       </c>
-      <c r="M17" s="12">
-        <v>1</v>
-      </c>
-      <c r="N17" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O17" s="12">
-        <v>1</v>
-      </c>
-      <c r="P17" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R17" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S17" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T17" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U17" s="20" t="str">
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+      <c r="N17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+      <c r="P17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2066,12 +2671,12 @@
       <c r="Z17" s="7">
         <v>-1</v>
       </c>
-      <c r="AA17" s="23" t="str">
+      <c r="AA17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>9,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="18" spans="3:27">
+    <row r="18" ht="16.8" spans="3:27">
       <c r="C18" s="7">
         <v>12</v>
       </c>
@@ -2085,7 +2690,7 @@
       <c r="G18" s="7">
         <v>1</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="7">
         <v>-1</v>
       </c>
       <c r="I18" s="7">
@@ -2094,37 +2699,37 @@
       <c r="J18" s="1">
         <v>6</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="16">
         <v>1</v>
       </c>
       <c r="L18" s="1">
         <v>10</v>
       </c>
-      <c r="M18" s="14">
-        <v>1</v>
-      </c>
-      <c r="N18" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="14">
-        <v>1</v>
-      </c>
-      <c r="P18" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R18" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S18" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T18" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U18" s="20" t="str">
+      <c r="M18" s="16">
+        <v>1</v>
+      </c>
+      <c r="N18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="16">
+        <v>1</v>
+      </c>
+      <c r="P18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2143,12 +2748,12 @@
       <c r="Z18" s="7">
         <v>-1</v>
       </c>
-      <c r="AA18" s="23" t="str">
+      <c r="AA18" s="21" t="str">
         <f t="shared" si="1"/>
         <v>10,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="19" spans="3:27">
+    <row r="19" ht="16.8" spans="3:27">
       <c r="C19" s="7">
         <v>13</v>
       </c>
@@ -2162,7 +2767,7 @@
       <c r="G19" s="7">
         <v>1</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="7">
         <v>-1</v>
       </c>
       <c r="I19" s="7">
@@ -2171,37 +2776,37 @@
       <c r="J19" s="1">
         <v>7</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="14">
         <v>1</v>
       </c>
       <c r="L19" s="1">
         <v>11</v>
       </c>
-      <c r="M19" s="12">
-        <v>1</v>
-      </c>
-      <c r="N19" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O19" s="12">
-        <v>1</v>
-      </c>
-      <c r="P19" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U19" s="20" t="str">
+      <c r="M19" s="14">
+        <v>1</v>
+      </c>
+      <c r="N19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="P19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2220,12 +2825,12 @@
       <c r="Z19" s="7">
         <v>-1</v>
       </c>
-      <c r="AA19" s="23" t="str">
+      <c r="AA19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>11,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="20" spans="3:27">
+    <row r="20" ht="16.8" spans="3:27">
       <c r="C20" s="7">
         <v>14</v>
       </c>
@@ -2239,7 +2844,7 @@
       <c r="G20" s="7">
         <v>1</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="7">
         <v>-1</v>
       </c>
       <c r="I20" s="7">
@@ -2248,37 +2853,37 @@
       <c r="J20" s="1">
         <v>7</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="16">
         <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>12</v>
       </c>
-      <c r="M20" s="12">
-        <v>1</v>
-      </c>
-      <c r="N20" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="12">
-        <v>1</v>
-      </c>
-      <c r="P20" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q20" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R20" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S20" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T20" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U20" s="20" t="str">
+      <c r="M20" s="14">
+        <v>1</v>
+      </c>
+      <c r="N20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1</v>
+      </c>
+      <c r="P20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2297,12 +2902,12 @@
       <c r="Z20" s="7">
         <v>-1</v>
       </c>
-      <c r="AA20" s="23" t="str">
+      <c r="AA20" s="21" t="str">
         <f t="shared" si="1"/>
         <v>12,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="21" spans="3:27">
+    <row r="21" ht="16.8" spans="3:27">
       <c r="C21" s="7">
         <v>15</v>
       </c>
@@ -2316,46 +2921,46 @@
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="7">
         <v>-1</v>
       </c>
       <c r="I21" s="7">
         <v>2</v>
       </c>
-      <c r="J21" s="12">
-        <v>1</v>
-      </c>
-      <c r="K21" s="12">
-        <v>1</v>
-      </c>
-      <c r="L21" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M21" s="14">
-        <v>1</v>
-      </c>
-      <c r="N21" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O21" s="14">
-        <v>1</v>
-      </c>
-      <c r="P21" s="12">
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="16">
+        <v>1</v>
+      </c>
+      <c r="N21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="16">
+        <v>1</v>
+      </c>
+      <c r="P21" s="14">
         <v>3</v>
       </c>
-      <c r="Q21" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R21" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S21" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T21" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U21" s="20" t="str">
+      <c r="Q21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>3,-1,-1,-1,-1</v>
       </c>
@@ -2374,12 +2979,12 @@
       <c r="Z21" s="7">
         <v>-1</v>
       </c>
-      <c r="AA21" s="23" t="str">
+      <c r="AA21" s="21" t="str">
         <f t="shared" si="1"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="22" spans="3:27">
+    <row r="22" ht="16.8" spans="3:27">
       <c r="C22" s="7">
         <v>16</v>
       </c>
@@ -2393,7 +2998,7 @@
       <c r="G22" s="7">
         <v>1</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="7">
         <v>-1</v>
       </c>
       <c r="I22" s="7">
@@ -2402,37 +3007,37 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="14">
-        <v>1</v>
-      </c>
-      <c r="L22" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M22" s="12">
-        <v>1</v>
-      </c>
-      <c r="N22" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O22" s="12">
-        <v>1</v>
-      </c>
-      <c r="P22" s="12">
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
+      <c r="L22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="14">
+        <v>1</v>
+      </c>
+      <c r="P22" s="14">
         <v>4</v>
       </c>
-      <c r="Q22" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R22" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S22" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T22" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U22" s="20" t="str">
+      <c r="Q22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4,-1,-1,-1,-1</v>
       </c>
@@ -2451,12 +3056,12 @@
       <c r="Z22" s="7">
         <v>-1</v>
       </c>
-      <c r="AA22" s="23" t="str">
+      <c r="AA22" s="21" t="str">
         <f t="shared" si="1"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="23" spans="3:27">
+    <row r="23" ht="16.8" spans="3:27">
       <c r="C23" s="7">
         <v>17</v>
       </c>
@@ -2470,7 +3075,7 @@
       <c r="G23" s="7">
         <v>1</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="7">
         <v>-1</v>
       </c>
       <c r="I23" s="7">
@@ -2479,37 +3084,37 @@
       <c r="J23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="14">
         <v>1</v>
       </c>
       <c r="L23" s="1">
         <v>15</v>
       </c>
-      <c r="M23" s="12">
-        <v>1</v>
-      </c>
-      <c r="N23" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O23" s="12">
-        <v>1</v>
-      </c>
-      <c r="P23" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R23" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S23" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T23" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U23" s="20" t="str">
+      <c r="M23" s="14">
+        <v>1</v>
+      </c>
+      <c r="N23" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="14">
+        <v>1</v>
+      </c>
+      <c r="P23" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2528,12 +3133,12 @@
       <c r="Z23" s="7">
         <v>-1</v>
       </c>
-      <c r="AA23" s="23" t="str">
+      <c r="AA23" s="21" t="str">
         <f t="shared" si="1"/>
         <v>15,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="24" spans="3:27">
+    <row r="24" ht="16.8" spans="3:27">
       <c r="C24" s="7">
         <v>18</v>
       </c>
@@ -2547,7 +3152,7 @@
       <c r="G24" s="7">
         <v>1</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="7">
         <v>-1</v>
       </c>
       <c r="I24" s="7">
@@ -2556,37 +3161,37 @@
       <c r="J24" s="1">
         <v>2</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="16">
         <v>1</v>
       </c>
       <c r="L24" s="1">
         <v>16</v>
       </c>
-      <c r="M24" s="14">
-        <v>1</v>
-      </c>
-      <c r="N24" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O24" s="14">
-        <v>1</v>
-      </c>
-      <c r="P24" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R24" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S24" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T24" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U24" s="20" t="str">
+      <c r="M24" s="16">
+        <v>1</v>
+      </c>
+      <c r="N24" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="16">
+        <v>1</v>
+      </c>
+      <c r="P24" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2605,12 +3210,12 @@
       <c r="Z24" s="7">
         <v>-1</v>
       </c>
-      <c r="AA24" s="23" t="str">
+      <c r="AA24" s="21" t="str">
         <f t="shared" si="1"/>
         <v>16,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="25" spans="3:27">
+    <row r="25" ht="16.8" spans="3:27">
       <c r="C25" s="7">
         <v>19</v>
       </c>
@@ -2624,7 +3229,7 @@
       <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="7">
         <v>-1</v>
       </c>
       <c r="I25" s="7">
@@ -2633,37 +3238,37 @@
       <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="14">
         <v>1</v>
       </c>
       <c r="L25" s="1">
         <v>17</v>
       </c>
-      <c r="M25" s="12">
-        <v>1</v>
-      </c>
-      <c r="N25" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O25" s="12">
-        <v>1</v>
-      </c>
-      <c r="P25" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R25" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S25" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T25" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U25" s="20" t="str">
+      <c r="M25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="14">
+        <v>1</v>
+      </c>
+      <c r="P25" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2682,12 +3287,12 @@
       <c r="Z25" s="7">
         <v>-1</v>
       </c>
-      <c r="AA25" s="23" t="str">
+      <c r="AA25" s="21" t="str">
         <f t="shared" si="1"/>
         <v>17,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="26" spans="3:27">
+    <row r="26" ht="16.8" spans="3:27">
       <c r="C26" s="7">
         <v>20</v>
       </c>
@@ -2701,7 +3306,7 @@
       <c r="G26" s="7">
         <v>1</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="7">
         <v>-1</v>
       </c>
       <c r="I26" s="7">
@@ -2710,37 +3315,37 @@
       <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="16">
         <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>18</v>
       </c>
-      <c r="M26" s="12">
-        <v>1</v>
-      </c>
-      <c r="N26" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O26" s="12">
-        <v>1</v>
-      </c>
-      <c r="P26" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q26" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R26" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S26" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T26" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U26" s="20" t="str">
+      <c r="M26" s="14">
+        <v>1</v>
+      </c>
+      <c r="N26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1</v>
+      </c>
+      <c r="P26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2759,12 +3364,12 @@
       <c r="Z26" s="7">
         <v>-1</v>
       </c>
-      <c r="AA26" s="23" t="str">
+      <c r="AA26" s="21" t="str">
         <f t="shared" si="1"/>
         <v>18,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="27" spans="3:27">
+    <row r="27" ht="16.8" spans="3:27">
       <c r="C27" s="7">
         <v>21</v>
       </c>
@@ -2778,7 +3383,7 @@
       <c r="G27" s="7">
         <v>1</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="7">
         <v>-1</v>
       </c>
       <c r="I27" s="7">
@@ -2787,37 +3392,37 @@
       <c r="J27" s="1">
         <v>4</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="14">
         <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>19</v>
       </c>
-      <c r="M27" s="14">
-        <v>1</v>
-      </c>
-      <c r="N27" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O27" s="14">
-        <v>1</v>
-      </c>
-      <c r="P27" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R27" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S27" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T27" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U27" s="20" t="str">
+      <c r="M27" s="16">
+        <v>1</v>
+      </c>
+      <c r="N27" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="16">
+        <v>1</v>
+      </c>
+      <c r="P27" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2836,12 +3441,12 @@
       <c r="Z27" s="7">
         <v>-1</v>
       </c>
-      <c r="AA27" s="23" t="str">
+      <c r="AA27" s="21" t="str">
         <f t="shared" si="1"/>
         <v>19,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="28" spans="3:27">
+    <row r="28" ht="16.8" spans="3:27">
       <c r="C28" s="7">
         <v>22</v>
       </c>
@@ -2855,7 +3460,7 @@
       <c r="G28" s="7">
         <v>1</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="7">
         <v>-1</v>
       </c>
       <c r="I28" s="7">
@@ -2864,37 +3469,37 @@
       <c r="J28" s="1">
         <v>4</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="16">
         <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>20</v>
       </c>
-      <c r="M28" s="12">
-        <v>1</v>
-      </c>
-      <c r="N28" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O28" s="12">
-        <v>1</v>
-      </c>
-      <c r="P28" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q28" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R28" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S28" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T28" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U28" s="20" t="str">
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1</v>
+      </c>
+      <c r="P28" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2913,12 +3518,12 @@
       <c r="Z28" s="7">
         <v>-1</v>
       </c>
-      <c r="AA28" s="23" t="str">
+      <c r="AA28" s="21" t="str">
         <f t="shared" si="1"/>
         <v>20,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="29" spans="3:27">
+    <row r="29" ht="16.8" spans="3:27">
       <c r="C29" s="7">
         <v>23</v>
       </c>
@@ -2932,7 +3537,7 @@
       <c r="G29" s="7">
         <v>1</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="7">
         <v>-1</v>
       </c>
       <c r="I29" s="7">
@@ -2941,37 +3546,37 @@
       <c r="J29" s="1">
         <v>5</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="14">
         <v>1</v>
       </c>
       <c r="L29" s="1">
         <v>21</v>
       </c>
-      <c r="M29" s="12">
-        <v>1</v>
-      </c>
-      <c r="N29" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O29" s="12">
-        <v>1</v>
-      </c>
-      <c r="P29" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U29" s="20" t="str">
+      <c r="M29" s="14">
+        <v>1</v>
+      </c>
+      <c r="N29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="14">
+        <v>1</v>
+      </c>
+      <c r="P29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -2990,12 +3595,12 @@
       <c r="Z29" s="7">
         <v>-1</v>
       </c>
-      <c r="AA29" s="23" t="str">
+      <c r="AA29" s="21" t="str">
         <f t="shared" si="1"/>
         <v>21,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="30" spans="3:27">
+    <row r="30" ht="16.8" spans="3:27">
       <c r="C30" s="7">
         <v>24</v>
       </c>
@@ -3009,7 +3614,7 @@
       <c r="G30" s="7">
         <v>1</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="7">
         <v>-1</v>
       </c>
       <c r="I30" s="7">
@@ -3018,37 +3623,37 @@
       <c r="J30" s="1">
         <v>5</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="16">
         <v>1</v>
       </c>
       <c r="L30" s="1">
         <v>22</v>
       </c>
-      <c r="M30" s="14">
-        <v>1</v>
-      </c>
-      <c r="N30" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O30" s="14">
-        <v>1</v>
-      </c>
-      <c r="P30" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U30" s="20" t="str">
+      <c r="M30" s="16">
+        <v>1</v>
+      </c>
+      <c r="N30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="16">
+        <v>1</v>
+      </c>
+      <c r="P30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3067,12 +3672,12 @@
       <c r="Z30" s="7">
         <v>-1</v>
       </c>
-      <c r="AA30" s="23" t="str">
+      <c r="AA30" s="21" t="str">
         <f t="shared" si="1"/>
         <v>22,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="31" spans="3:27">
+    <row r="31" ht="16.8" spans="3:27">
       <c r="C31" s="7">
         <v>25</v>
       </c>
@@ -3086,7 +3691,7 @@
       <c r="G31" s="7">
         <v>1</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="7">
         <v>-1</v>
       </c>
       <c r="I31" s="7">
@@ -3095,37 +3700,37 @@
       <c r="J31" s="1">
         <v>6</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="14">
         <v>1</v>
       </c>
       <c r="L31" s="1">
         <v>23</v>
       </c>
-      <c r="M31" s="12">
-        <v>1</v>
-      </c>
-      <c r="N31" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O31" s="12">
-        <v>1</v>
-      </c>
-      <c r="P31" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q31" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R31" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S31" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T31" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U31" s="20" t="str">
+      <c r="M31" s="14">
+        <v>1</v>
+      </c>
+      <c r="N31" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="14">
+        <v>1</v>
+      </c>
+      <c r="P31" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3144,12 +3749,12 @@
       <c r="Z31" s="7">
         <v>-1</v>
       </c>
-      <c r="AA31" s="23" t="str">
+      <c r="AA31" s="21" t="str">
         <f t="shared" si="1"/>
         <v>23,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="32" spans="3:27">
+    <row r="32" ht="16.8" spans="3:27">
       <c r="C32" s="7">
         <v>26</v>
       </c>
@@ -3163,7 +3768,7 @@
       <c r="G32" s="7">
         <v>1</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="7">
         <v>-1</v>
       </c>
       <c r="I32" s="7">
@@ -3172,37 +3777,37 @@
       <c r="J32" s="1">
         <v>6</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="16">
         <v>1</v>
       </c>
       <c r="L32" s="1">
         <v>24</v>
       </c>
-      <c r="M32" s="12">
-        <v>1</v>
-      </c>
-      <c r="N32" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O32" s="12">
-        <v>1</v>
-      </c>
-      <c r="P32" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q32" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U32" s="20" t="str">
+      <c r="M32" s="14">
+        <v>1</v>
+      </c>
+      <c r="N32" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="14">
+        <v>1</v>
+      </c>
+      <c r="P32" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3221,12 +3826,12 @@
       <c r="Z32" s="7">
         <v>-1</v>
       </c>
-      <c r="AA32" s="23" t="str">
+      <c r="AA32" s="21" t="str">
         <f t="shared" si="1"/>
         <v>24,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="33" spans="3:27">
+    <row r="33" ht="16.8" spans="3:27">
       <c r="C33" s="7">
         <v>27</v>
       </c>
@@ -3240,7 +3845,7 @@
       <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="7">
         <v>-1</v>
       </c>
       <c r="I33" s="7">
@@ -3249,37 +3854,37 @@
       <c r="J33" s="1">
         <v>7</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="14">
         <v>1</v>
       </c>
       <c r="L33" s="1">
         <v>25</v>
       </c>
-      <c r="M33" s="14">
-        <v>1</v>
-      </c>
-      <c r="N33" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O33" s="14">
-        <v>1</v>
-      </c>
-      <c r="P33" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q33" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R33" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S33" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T33" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U33" s="20" t="str">
+      <c r="M33" s="16">
+        <v>1</v>
+      </c>
+      <c r="N33" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="16">
+        <v>1</v>
+      </c>
+      <c r="P33" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3298,12 +3903,12 @@
       <c r="Z33" s="7">
         <v>-1</v>
       </c>
-      <c r="AA33" s="23" t="str">
+      <c r="AA33" s="21" t="str">
         <f t="shared" si="1"/>
         <v>25,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="34" spans="3:27">
+    <row r="34" ht="16.8" spans="3:27">
       <c r="C34" s="7">
         <v>28</v>
       </c>
@@ -3317,7 +3922,7 @@
       <c r="G34" s="7">
         <v>1</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="7">
         <v>-1</v>
       </c>
       <c r="I34" s="7">
@@ -3326,37 +3931,37 @@
       <c r="J34" s="1">
         <v>7</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="16">
         <v>1</v>
       </c>
       <c r="L34" s="1">
         <v>26</v>
       </c>
-      <c r="M34" s="12">
-        <v>1</v>
-      </c>
-      <c r="N34" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O34" s="12">
-        <v>1</v>
-      </c>
-      <c r="P34" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="20" t="str">
+      <c r="M34" s="14">
+        <v>1</v>
+      </c>
+      <c r="N34" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="14">
+        <v>1</v>
+      </c>
+      <c r="P34" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3375,12 +3980,12 @@
       <c r="Z34" s="7">
         <v>-1</v>
       </c>
-      <c r="AA34" s="23" t="str">
+      <c r="AA34" s="21" t="str">
         <f t="shared" si="1"/>
         <v>26,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="35" spans="3:27">
+    <row r="35" ht="16.8" spans="3:27">
       <c r="C35" s="7">
         <v>29</v>
       </c>
@@ -3394,46 +3999,46 @@
       <c r="G35" s="7">
         <v>1</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="7">
         <v>-1</v>
       </c>
       <c r="I35" s="7">
         <v>3</v>
       </c>
-      <c r="J35" s="12">
-        <v>1</v>
-      </c>
-      <c r="K35" s="12">
-        <v>1</v>
-      </c>
-      <c r="L35" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M35" s="12">
-        <v>1</v>
-      </c>
-      <c r="N35" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O35" s="12">
-        <v>1</v>
-      </c>
-      <c r="P35" s="12">
+      <c r="J35" s="14">
+        <v>1</v>
+      </c>
+      <c r="K35" s="14">
+        <v>1</v>
+      </c>
+      <c r="L35" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="14">
+        <v>1</v>
+      </c>
+      <c r="N35" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O35" s="14">
+        <v>1</v>
+      </c>
+      <c r="P35" s="14">
         <v>5</v>
       </c>
-      <c r="Q35" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U35" s="20" t="str">
+      <c r="Q35" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5,-1,-1,-1,-1</v>
       </c>
@@ -3452,12 +4057,12 @@
       <c r="Z35" s="7">
         <v>-1</v>
       </c>
-      <c r="AA35" s="23" t="str">
+      <c r="AA35" s="21" t="str">
         <f t="shared" si="1"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="36" spans="3:27">
+    <row r="36" ht="16.8" spans="3:27">
       <c r="C36" s="7">
         <v>30</v>
       </c>
@@ -3471,7 +4076,7 @@
       <c r="G36" s="7">
         <v>1</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="7">
         <v>-1</v>
       </c>
       <c r="I36" s="7">
@@ -3480,37 +4085,37 @@
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="14">
-        <v>1</v>
-      </c>
-      <c r="L36" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="14">
-        <v>1</v>
-      </c>
-      <c r="N36" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O36" s="14">
-        <v>1</v>
-      </c>
-      <c r="P36" s="12">
+      <c r="K36" s="16">
+        <v>1</v>
+      </c>
+      <c r="L36" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="16">
+        <v>1</v>
+      </c>
+      <c r="N36" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O36" s="16">
+        <v>1</v>
+      </c>
+      <c r="P36" s="14">
         <v>6</v>
       </c>
-      <c r="Q36" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U36" s="20" t="str">
+      <c r="Q36" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>6,-1,-1,-1,-1</v>
       </c>
@@ -3529,12 +4134,12 @@
       <c r="Z36" s="7">
         <v>-1</v>
       </c>
-      <c r="AA36" s="23" t="str">
+      <c r="AA36" s="21" t="str">
         <f t="shared" si="1"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="37" spans="3:27">
+    <row r="37" ht="16.8" spans="3:27">
       <c r="C37" s="7">
         <v>31</v>
       </c>
@@ -3548,7 +4153,7 @@
       <c r="G37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="7">
         <v>-1</v>
       </c>
       <c r="I37" s="7">
@@ -3557,37 +4162,37 @@
       <c r="J37" s="1">
         <v>2</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="14">
         <v>1</v>
       </c>
       <c r="L37" s="1">
         <v>29</v>
       </c>
-      <c r="M37" s="12">
-        <v>1</v>
-      </c>
-      <c r="N37" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O37" s="12">
-        <v>1</v>
-      </c>
-      <c r="P37" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q37" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U37" s="20" t="str">
+      <c r="M37" s="14">
+        <v>1</v>
+      </c>
+      <c r="N37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="14">
+        <v>1</v>
+      </c>
+      <c r="P37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3606,12 +4211,12 @@
       <c r="Z37" s="7">
         <v>-1</v>
       </c>
-      <c r="AA37" s="23" t="str">
+      <c r="AA37" s="21" t="str">
         <f t="shared" si="1"/>
         <v>29,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="38" spans="3:27">
+    <row r="38" ht="16.8" spans="3:27">
       <c r="C38" s="7">
         <v>32</v>
       </c>
@@ -3625,7 +4230,7 @@
       <c r="G38" s="7">
         <v>1</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="7">
         <v>-1</v>
       </c>
       <c r="I38" s="7">
@@ -3634,37 +4239,37 @@
       <c r="J38" s="1">
         <v>2</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="16">
         <v>1</v>
       </c>
       <c r="L38" s="1">
         <v>30</v>
       </c>
-      <c r="M38" s="12">
-        <v>1</v>
-      </c>
-      <c r="N38" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O38" s="12">
-        <v>1</v>
-      </c>
-      <c r="P38" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q38" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U38" s="20" t="str">
+      <c r="M38" s="14">
+        <v>1</v>
+      </c>
+      <c r="N38" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O38" s="14">
+        <v>1</v>
+      </c>
+      <c r="P38" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3683,12 +4288,12 @@
       <c r="Z38" s="7">
         <v>-1</v>
       </c>
-      <c r="AA38" s="23" t="str">
+      <c r="AA38" s="21" t="str">
         <f t="shared" si="1"/>
         <v>30,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="39" spans="3:27">
+    <row r="39" ht="16.8" spans="3:27">
       <c r="C39" s="7">
         <v>33</v>
       </c>
@@ -3702,7 +4307,7 @@
       <c r="G39" s="7">
         <v>1</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="7">
         <v>-1</v>
       </c>
       <c r="I39" s="7">
@@ -3711,37 +4316,37 @@
       <c r="J39" s="1">
         <v>3</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="14">
         <v>1</v>
       </c>
       <c r="L39" s="1">
         <v>31</v>
       </c>
-      <c r="M39" s="14">
-        <v>1</v>
-      </c>
-      <c r="N39" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O39" s="14">
-        <v>1</v>
-      </c>
-      <c r="P39" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q39" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U39" s="20" t="str">
+      <c r="M39" s="16">
+        <v>1</v>
+      </c>
+      <c r="N39" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O39" s="16">
+        <v>1</v>
+      </c>
+      <c r="P39" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3760,12 +4365,12 @@
       <c r="Z39" s="7">
         <v>-1</v>
       </c>
-      <c r="AA39" s="23" t="str">
+      <c r="AA39" s="21" t="str">
         <f t="shared" si="1"/>
         <v>31,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="40" spans="3:27">
+    <row r="40" ht="16.8" spans="3:27">
       <c r="C40" s="7">
         <v>34</v>
       </c>
@@ -3779,7 +4384,7 @@
       <c r="G40" s="7">
         <v>1</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="7">
         <v>-1</v>
       </c>
       <c r="I40" s="7">
@@ -3788,37 +4393,37 @@
       <c r="J40" s="1">
         <v>3</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="16">
         <v>1</v>
       </c>
       <c r="L40" s="1">
         <v>32</v>
       </c>
-      <c r="M40" s="12">
-        <v>1</v>
-      </c>
-      <c r="N40" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O40" s="12">
-        <v>1</v>
-      </c>
-      <c r="P40" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q40" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U40" s="20" t="str">
+      <c r="M40" s="14">
+        <v>1</v>
+      </c>
+      <c r="N40" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O40" s="14">
+        <v>1</v>
+      </c>
+      <c r="P40" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U40" s="21" t="str">
         <f t="shared" ref="U40:U62" si="2">P40&amp;","&amp;Q40&amp;","&amp;R40&amp;","&amp;S40&amp;","&amp;T40</f>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3837,12 +4442,12 @@
       <c r="Z40" s="7">
         <v>-1</v>
       </c>
-      <c r="AA40" s="23" t="str">
+      <c r="AA40" s="21" t="str">
         <f t="shared" ref="AA40:AA62" si="3">V40&amp;","&amp;W40&amp;","&amp;X40&amp;","&amp;Y40&amp;","&amp;Z40</f>
         <v>32,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="41" spans="3:27">
+    <row r="41" ht="16.8" spans="3:27">
       <c r="C41" s="7">
         <v>35</v>
       </c>
@@ -3856,7 +4461,7 @@
       <c r="G41" s="7">
         <v>1</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="7">
         <v>-1</v>
       </c>
       <c r="I41" s="7">
@@ -3865,37 +4470,37 @@
       <c r="J41" s="1">
         <v>4</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="14">
         <v>1</v>
       </c>
       <c r="L41" s="1">
         <v>33</v>
       </c>
-      <c r="M41" s="12">
-        <v>1</v>
-      </c>
-      <c r="N41" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O41" s="12">
-        <v>1</v>
-      </c>
-      <c r="P41" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U41" s="20" t="str">
+      <c r="M41" s="14">
+        <v>1</v>
+      </c>
+      <c r="N41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O41" s="14">
+        <v>1</v>
+      </c>
+      <c r="P41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U41" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3914,12 +4519,12 @@
       <c r="Z41" s="7">
         <v>-1</v>
       </c>
-      <c r="AA41" s="23" t="str">
+      <c r="AA41" s="21" t="str">
         <f t="shared" si="3"/>
         <v>33,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="42" spans="3:27">
+    <row r="42" ht="16.8" spans="3:27">
       <c r="C42" s="7">
         <v>36</v>
       </c>
@@ -3933,7 +4538,7 @@
       <c r="G42" s="7">
         <v>1</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="7">
         <v>-1</v>
       </c>
       <c r="I42" s="7">
@@ -3942,37 +4547,37 @@
       <c r="J42" s="1">
         <v>4</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="16">
         <v>1</v>
       </c>
       <c r="L42" s="1">
         <v>34</v>
       </c>
-      <c r="M42" s="14">
-        <v>1</v>
-      </c>
-      <c r="N42" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>1</v>
-      </c>
-      <c r="P42" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q42" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U42" s="20" t="str">
+      <c r="M42" s="16">
+        <v>1</v>
+      </c>
+      <c r="N42" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O42" s="16">
+        <v>1</v>
+      </c>
+      <c r="P42" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U42" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -3991,12 +4596,12 @@
       <c r="Z42" s="7">
         <v>-1</v>
       </c>
-      <c r="AA42" s="23" t="str">
+      <c r="AA42" s="21" t="str">
         <f t="shared" si="3"/>
         <v>34,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="43" spans="3:27">
+    <row r="43" ht="16.8" spans="3:27">
       <c r="C43" s="7">
         <v>37</v>
       </c>
@@ -4010,7 +4615,7 @@
       <c r="G43" s="7">
         <v>1</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="7">
         <v>-1</v>
       </c>
       <c r="I43" s="7">
@@ -4019,37 +4624,37 @@
       <c r="J43" s="1">
         <v>5</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="14">
         <v>1</v>
       </c>
       <c r="L43" s="1">
         <v>35</v>
       </c>
-      <c r="M43" s="12">
-        <v>1</v>
-      </c>
-      <c r="N43" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O43" s="12">
-        <v>1</v>
-      </c>
-      <c r="P43" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q43" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U43" s="20" t="str">
+      <c r="M43" s="14">
+        <v>1</v>
+      </c>
+      <c r="N43" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O43" s="14">
+        <v>1</v>
+      </c>
+      <c r="P43" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U43" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4068,12 +4673,12 @@
       <c r="Z43" s="7">
         <v>-1</v>
       </c>
-      <c r="AA43" s="23" t="str">
+      <c r="AA43" s="21" t="str">
         <f t="shared" si="3"/>
         <v>35,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="44" spans="3:27">
+    <row r="44" ht="16.8" spans="3:27">
       <c r="C44" s="7">
         <v>38</v>
       </c>
@@ -4087,7 +4692,7 @@
       <c r="G44" s="7">
         <v>1</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="7">
         <v>-1</v>
       </c>
       <c r="I44" s="7">
@@ -4096,37 +4701,37 @@
       <c r="J44" s="1">
         <v>5</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="16">
         <v>1</v>
       </c>
       <c r="L44" s="1">
         <v>36</v>
       </c>
-      <c r="M44" s="12">
-        <v>1</v>
-      </c>
-      <c r="N44" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O44" s="12">
-        <v>1</v>
-      </c>
-      <c r="P44" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q44" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U44" s="20" t="str">
+      <c r="M44" s="14">
+        <v>1</v>
+      </c>
+      <c r="N44" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O44" s="14">
+        <v>1</v>
+      </c>
+      <c r="P44" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U44" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4145,12 +4750,12 @@
       <c r="Z44" s="7">
         <v>-1</v>
       </c>
-      <c r="AA44" s="23" t="str">
+      <c r="AA44" s="21" t="str">
         <f t="shared" si="3"/>
         <v>36,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="45" spans="3:27">
+    <row r="45" ht="16.8" spans="3:27">
       <c r="C45" s="7">
         <v>39</v>
       </c>
@@ -4164,7 +4769,7 @@
       <c r="G45" s="7">
         <v>1</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="7">
         <v>-1</v>
       </c>
       <c r="I45" s="7">
@@ -4173,37 +4778,37 @@
       <c r="J45" s="1">
         <v>6</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="14">
         <v>1</v>
       </c>
       <c r="L45" s="1">
         <v>37</v>
       </c>
-      <c r="M45" s="14">
-        <v>1</v>
-      </c>
-      <c r="N45" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O45" s="14">
-        <v>1</v>
-      </c>
-      <c r="P45" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q45" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U45" s="20" t="str">
+      <c r="M45" s="16">
+        <v>1</v>
+      </c>
+      <c r="N45" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="16">
+        <v>1</v>
+      </c>
+      <c r="P45" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U45" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4222,12 +4827,12 @@
       <c r="Z45" s="7">
         <v>-1</v>
       </c>
-      <c r="AA45" s="23" t="str">
+      <c r="AA45" s="21" t="str">
         <f t="shared" si="3"/>
         <v>37,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="46" spans="3:27">
+    <row r="46" ht="16.8" spans="3:27">
       <c r="C46" s="7">
         <v>40</v>
       </c>
@@ -4241,7 +4846,7 @@
       <c r="G46" s="7">
         <v>1</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="7">
         <v>-1</v>
       </c>
       <c r="I46" s="7">
@@ -4250,37 +4855,37 @@
       <c r="J46" s="1">
         <v>6</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="16">
         <v>1</v>
       </c>
       <c r="L46" s="1">
         <v>38</v>
       </c>
-      <c r="M46" s="12">
-        <v>1</v>
-      </c>
-      <c r="N46" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O46" s="12">
-        <v>1</v>
-      </c>
-      <c r="P46" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q46" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U46" s="20" t="str">
+      <c r="M46" s="14">
+        <v>1</v>
+      </c>
+      <c r="N46" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O46" s="14">
+        <v>1</v>
+      </c>
+      <c r="P46" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U46" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4299,12 +4904,12 @@
       <c r="Z46" s="7">
         <v>-1</v>
       </c>
-      <c r="AA46" s="23" t="str">
+      <c r="AA46" s="21" t="str">
         <f t="shared" si="3"/>
         <v>38,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="47" spans="3:27">
+    <row r="47" ht="16.8" spans="3:27">
       <c r="C47" s="7">
         <v>41</v>
       </c>
@@ -4318,7 +4923,7 @@
       <c r="G47" s="7">
         <v>1</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="7">
         <v>-1</v>
       </c>
       <c r="I47" s="7">
@@ -4327,37 +4932,37 @@
       <c r="J47" s="1">
         <v>7</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="14">
         <v>1</v>
       </c>
       <c r="L47" s="1">
         <v>39</v>
       </c>
-      <c r="M47" s="12">
-        <v>1</v>
-      </c>
-      <c r="N47" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O47" s="12">
-        <v>1</v>
-      </c>
-      <c r="P47" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q47" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R47" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S47" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T47" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U47" s="20" t="str">
+      <c r="M47" s="14">
+        <v>1</v>
+      </c>
+      <c r="N47" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O47" s="14">
+        <v>1</v>
+      </c>
+      <c r="P47" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U47" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4376,12 +4981,12 @@
       <c r="Z47" s="7">
         <v>-1</v>
       </c>
-      <c r="AA47" s="23" t="str">
+      <c r="AA47" s="21" t="str">
         <f t="shared" si="3"/>
         <v>39,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="48" spans="3:27">
+    <row r="48" ht="16.8" spans="3:27">
       <c r="C48" s="7">
         <v>42</v>
       </c>
@@ -4395,46 +5000,46 @@
       <c r="G48" s="7">
         <v>1</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="7">
         <v>-1</v>
       </c>
       <c r="I48" s="7">
         <v>3</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="17">
         <v>7</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="16">
         <v>1</v>
       </c>
       <c r="L48" s="1">
         <v>40</v>
       </c>
-      <c r="M48" s="14">
-        <v>1</v>
-      </c>
-      <c r="N48" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O48" s="14">
-        <v>1</v>
-      </c>
-      <c r="P48" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Q48" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R48" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S48" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T48" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U48" s="20" t="str">
+      <c r="M48" s="16">
+        <v>1</v>
+      </c>
+      <c r="N48" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O48" s="16">
+        <v>1</v>
+      </c>
+      <c r="P48" s="18">
+        <v>-1</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U48" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4453,12 +5058,12 @@
       <c r="Z48" s="7">
         <v>-1</v>
       </c>
-      <c r="AA48" s="23" t="str">
+      <c r="AA48" s="21" t="str">
         <f t="shared" si="3"/>
         <v>40,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="49" spans="3:27">
+    <row r="49" ht="16.8" spans="3:27">
       <c r="C49" s="7">
         <v>43</v>
       </c>
@@ -4472,46 +5077,46 @@
       <c r="G49" s="7">
         <v>1</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="7">
         <v>-1</v>
       </c>
       <c r="I49" s="7">
         <v>4</v>
       </c>
-      <c r="J49" s="12">
-        <v>1</v>
-      </c>
-      <c r="K49" s="12">
-        <v>1</v>
-      </c>
-      <c r="L49" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M49" s="12">
-        <v>1</v>
-      </c>
-      <c r="N49" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O49" s="12">
-        <v>1</v>
-      </c>
-      <c r="P49" s="12">
+      <c r="J49" s="14">
+        <v>1</v>
+      </c>
+      <c r="K49" s="14">
+        <v>1</v>
+      </c>
+      <c r="L49" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="14">
+        <v>1</v>
+      </c>
+      <c r="N49" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O49" s="14">
+        <v>1</v>
+      </c>
+      <c r="P49" s="14">
         <v>7</v>
       </c>
-      <c r="Q49" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R49" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S49" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T49" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U49" s="20" t="str">
+      <c r="Q49" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U49" s="21" t="str">
         <f t="shared" si="2"/>
         <v>7,-1,-1,-1,-1</v>
       </c>
@@ -4530,12 +5135,12 @@
       <c r="Z49" s="7">
         <v>-1</v>
       </c>
-      <c r="AA49" s="23" t="str">
+      <c r="AA49" s="21" t="str">
         <f t="shared" si="3"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="50" spans="3:27">
+    <row r="50" ht="16.8" spans="3:27">
       <c r="C50" s="7">
         <v>44</v>
       </c>
@@ -4549,7 +5154,7 @@
       <c r="G50" s="7">
         <v>1</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="7">
         <v>-1</v>
       </c>
       <c r="I50" s="7">
@@ -4558,37 +5163,37 @@
       <c r="J50" s="1">
         <v>1</v>
       </c>
-      <c r="K50" s="14">
-        <v>1</v>
-      </c>
-      <c r="L50" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M50" s="12">
-        <v>1</v>
-      </c>
-      <c r="N50" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O50" s="12">
-        <v>1</v>
-      </c>
-      <c r="P50" s="12">
+      <c r="K50" s="16">
+        <v>1</v>
+      </c>
+      <c r="L50" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="14">
+        <v>1</v>
+      </c>
+      <c r="N50" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O50" s="14">
+        <v>1</v>
+      </c>
+      <c r="P50" s="14">
         <v>8</v>
       </c>
-      <c r="Q50" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R50" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S50" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T50" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U50" s="20" t="str">
+      <c r="Q50" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U50" s="21" t="str">
         <f t="shared" si="2"/>
         <v>8,-1,-1,-1,-1</v>
       </c>
@@ -4607,12 +5212,12 @@
       <c r="Z50" s="7">
         <v>-1</v>
       </c>
-      <c r="AA50" s="23" t="str">
+      <c r="AA50" s="21" t="str">
         <f t="shared" si="3"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="51" spans="3:27">
+    <row r="51" ht="16.8" spans="3:27">
       <c r="C51" s="7">
         <v>45</v>
       </c>
@@ -4626,7 +5231,7 @@
       <c r="G51" s="7">
         <v>1</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="7">
         <v>-1</v>
       </c>
       <c r="I51" s="7">
@@ -4635,37 +5240,37 @@
       <c r="J51" s="1">
         <v>2</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="14">
         <v>1</v>
       </c>
       <c r="L51" s="7">
         <v>43</v>
       </c>
-      <c r="M51" s="14">
-        <v>1</v>
-      </c>
-      <c r="N51" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O51" s="14">
-        <v>1</v>
-      </c>
-      <c r="P51" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q51" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R51" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S51" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T51" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U51" s="20" t="str">
+      <c r="M51" s="16">
+        <v>1</v>
+      </c>
+      <c r="N51" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O51" s="16">
+        <v>1</v>
+      </c>
+      <c r="P51" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U51" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4684,12 +5289,12 @@
       <c r="Z51" s="7">
         <v>-1</v>
       </c>
-      <c r="AA51" s="23" t="str">
+      <c r="AA51" s="21" t="str">
         <f t="shared" si="3"/>
         <v>43,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="52" spans="3:27">
+    <row r="52" ht="16.8" spans="3:27">
       <c r="C52" s="7">
         <v>46</v>
       </c>
@@ -4703,7 +5308,7 @@
       <c r="G52" s="7">
         <v>1</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="7">
         <v>-1</v>
       </c>
       <c r="I52" s="7">
@@ -4712,37 +5317,37 @@
       <c r="J52" s="1">
         <v>2</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="16">
         <v>1</v>
       </c>
       <c r="L52" s="7">
         <v>44</v>
       </c>
-      <c r="M52" s="12">
-        <v>1</v>
-      </c>
-      <c r="N52" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O52" s="12">
-        <v>1</v>
-      </c>
-      <c r="P52" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q52" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R52" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S52" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T52" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U52" s="20" t="str">
+      <c r="M52" s="14">
+        <v>1</v>
+      </c>
+      <c r="N52" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O52" s="14">
+        <v>1</v>
+      </c>
+      <c r="P52" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U52" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4761,12 +5366,12 @@
       <c r="Z52" s="7">
         <v>-1</v>
       </c>
-      <c r="AA52" s="23" t="str">
+      <c r="AA52" s="21" t="str">
         <f t="shared" si="3"/>
         <v>44,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="53" spans="3:27">
+    <row r="53" ht="16.8" spans="3:27">
       <c r="C53" s="7">
         <v>47</v>
       </c>
@@ -4780,7 +5385,7 @@
       <c r="G53" s="7">
         <v>1</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="7">
         <v>-1</v>
       </c>
       <c r="I53" s="7">
@@ -4789,37 +5394,37 @@
       <c r="J53" s="1">
         <v>3</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="14">
         <v>1</v>
       </c>
       <c r="L53" s="7">
         <v>45</v>
       </c>
-      <c r="M53" s="12">
-        <v>1</v>
-      </c>
-      <c r="N53" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O53" s="12">
-        <v>1</v>
-      </c>
-      <c r="P53" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q53" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R53" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S53" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T53" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U53" s="20" t="str">
+      <c r="M53" s="14">
+        <v>1</v>
+      </c>
+      <c r="N53" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O53" s="14">
+        <v>1</v>
+      </c>
+      <c r="P53" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U53" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4838,12 +5443,12 @@
       <c r="Z53" s="7">
         <v>-1</v>
       </c>
-      <c r="AA53" s="23" t="str">
+      <c r="AA53" s="21" t="str">
         <f t="shared" si="3"/>
         <v>45,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="54" spans="3:27">
+    <row r="54" ht="16.8" spans="3:27">
       <c r="C54" s="7">
         <v>48</v>
       </c>
@@ -4857,7 +5462,7 @@
       <c r="G54" s="7">
         <v>1</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="7">
         <v>-1</v>
       </c>
       <c r="I54" s="7">
@@ -4866,37 +5471,37 @@
       <c r="J54" s="1">
         <v>3</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="16">
         <v>1</v>
       </c>
       <c r="L54" s="7">
         <v>46</v>
       </c>
-      <c r="M54" s="14">
-        <v>1</v>
-      </c>
-      <c r="N54" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O54" s="14">
-        <v>1</v>
-      </c>
-      <c r="P54" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q54" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R54" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S54" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T54" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U54" s="20" t="str">
+      <c r="M54" s="16">
+        <v>1</v>
+      </c>
+      <c r="N54" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O54" s="16">
+        <v>1</v>
+      </c>
+      <c r="P54" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U54" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4915,12 +5520,12 @@
       <c r="Z54" s="7">
         <v>-1</v>
       </c>
-      <c r="AA54" s="23" t="str">
+      <c r="AA54" s="21" t="str">
         <f t="shared" si="3"/>
         <v>46,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="55" spans="3:27">
+    <row r="55" ht="16.8" spans="3:27">
       <c r="C55" s="7">
         <v>49</v>
       </c>
@@ -4934,7 +5539,7 @@
       <c r="G55" s="7">
         <v>1</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="7">
         <v>-1</v>
       </c>
       <c r="I55" s="7">
@@ -4943,37 +5548,37 @@
       <c r="J55" s="1">
         <v>4</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="14">
         <v>1</v>
       </c>
       <c r="L55" s="7">
         <v>47</v>
       </c>
-      <c r="M55" s="12">
-        <v>1</v>
-      </c>
-      <c r="N55" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O55" s="12">
-        <v>1</v>
-      </c>
-      <c r="P55" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q55" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R55" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S55" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T55" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U55" s="20" t="str">
+      <c r="M55" s="14">
+        <v>1</v>
+      </c>
+      <c r="N55" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O55" s="14">
+        <v>1</v>
+      </c>
+      <c r="P55" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U55" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -4992,12 +5597,12 @@
       <c r="Z55" s="7">
         <v>-1</v>
       </c>
-      <c r="AA55" s="23" t="str">
+      <c r="AA55" s="21" t="str">
         <f t="shared" si="3"/>
         <v>47,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="56" spans="3:27">
+    <row r="56" ht="16.8" spans="3:27">
       <c r="C56" s="7">
         <v>50</v>
       </c>
@@ -5011,7 +5616,7 @@
       <c r="G56" s="7">
         <v>1</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="7">
         <v>-1</v>
       </c>
       <c r="I56" s="7">
@@ -5020,37 +5625,37 @@
       <c r="J56" s="1">
         <v>4</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="16">
         <v>1</v>
       </c>
       <c r="L56" s="7">
         <v>48</v>
       </c>
-      <c r="M56" s="12">
-        <v>1</v>
-      </c>
-      <c r="N56" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O56" s="12">
-        <v>1</v>
-      </c>
-      <c r="P56" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q56" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R56" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S56" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T56" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U56" s="20" t="str">
+      <c r="M56" s="14">
+        <v>1</v>
+      </c>
+      <c r="N56" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O56" s="14">
+        <v>1</v>
+      </c>
+      <c r="P56" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q56" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U56" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -5069,12 +5674,12 @@
       <c r="Z56" s="7">
         <v>-1</v>
       </c>
-      <c r="AA56" s="23" t="str">
+      <c r="AA56" s="21" t="str">
         <f t="shared" si="3"/>
         <v>48,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="57" spans="3:27">
+    <row r="57" ht="16.8" spans="3:27">
       <c r="C57" s="7">
         <v>51</v>
       </c>
@@ -5088,7 +5693,7 @@
       <c r="G57" s="7">
         <v>1</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="7">
         <v>-1</v>
       </c>
       <c r="I57" s="7">
@@ -5097,37 +5702,37 @@
       <c r="J57" s="1">
         <v>5</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="14">
         <v>1</v>
       </c>
       <c r="L57" s="7">
         <v>49</v>
       </c>
-      <c r="M57" s="14">
-        <v>1</v>
-      </c>
-      <c r="N57" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O57" s="14">
-        <v>1</v>
-      </c>
-      <c r="P57" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q57" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R57" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S57" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T57" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U57" s="20" t="str">
+      <c r="M57" s="16">
+        <v>1</v>
+      </c>
+      <c r="N57" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O57" s="16">
+        <v>1</v>
+      </c>
+      <c r="P57" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q57" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U57" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -5146,12 +5751,12 @@
       <c r="Z57" s="7">
         <v>-1</v>
       </c>
-      <c r="AA57" s="23" t="str">
+      <c r="AA57" s="21" t="str">
         <f t="shared" si="3"/>
         <v>49,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="58" spans="3:27">
+    <row r="58" ht="16.8" spans="3:27">
       <c r="C58" s="7">
         <v>52</v>
       </c>
@@ -5165,7 +5770,7 @@
       <c r="G58" s="7">
         <v>1</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="7">
         <v>-1</v>
       </c>
       <c r="I58" s="7">
@@ -5174,37 +5779,37 @@
       <c r="J58" s="1">
         <v>5</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="16">
         <v>1</v>
       </c>
       <c r="L58" s="7">
         <v>50</v>
       </c>
-      <c r="M58" s="12">
-        <v>1</v>
-      </c>
-      <c r="N58" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O58" s="12">
-        <v>1</v>
-      </c>
-      <c r="P58" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q58" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R58" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S58" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T58" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U58" s="20" t="str">
+      <c r="M58" s="14">
+        <v>1</v>
+      </c>
+      <c r="N58" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O58" s="14">
+        <v>1</v>
+      </c>
+      <c r="P58" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U58" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -5223,12 +5828,12 @@
       <c r="Z58" s="7">
         <v>-1</v>
       </c>
-      <c r="AA58" s="23" t="str">
+      <c r="AA58" s="21" t="str">
         <f t="shared" si="3"/>
         <v>50,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="59" spans="3:27">
+    <row r="59" ht="16.8" spans="3:27">
       <c r="C59" s="7">
         <v>53</v>
       </c>
@@ -5242,7 +5847,7 @@
       <c r="G59" s="7">
         <v>1</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="7">
         <v>-1</v>
       </c>
       <c r="I59" s="7">
@@ -5251,37 +5856,37 @@
       <c r="J59" s="1">
         <v>6</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="14">
         <v>1</v>
       </c>
       <c r="L59" s="7">
         <v>51</v>
       </c>
-      <c r="M59" s="12">
-        <v>1</v>
-      </c>
-      <c r="N59" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O59" s="12">
-        <v>1</v>
-      </c>
-      <c r="P59" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q59" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R59" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S59" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T59" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U59" s="20" t="str">
+      <c r="M59" s="14">
+        <v>1</v>
+      </c>
+      <c r="N59" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O59" s="14">
+        <v>1</v>
+      </c>
+      <c r="P59" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U59" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -5300,12 +5905,12 @@
       <c r="Z59" s="7">
         <v>-1</v>
       </c>
-      <c r="AA59" s="23" t="str">
+      <c r="AA59" s="21" t="str">
         <f t="shared" si="3"/>
         <v>51,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="60" spans="3:27">
+    <row r="60" ht="16.8" spans="3:27">
       <c r="C60" s="7">
         <v>54</v>
       </c>
@@ -5319,7 +5924,7 @@
       <c r="G60" s="7">
         <v>1</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="7">
         <v>-1</v>
       </c>
       <c r="I60" s="7">
@@ -5328,37 +5933,37 @@
       <c r="J60" s="1">
         <v>6</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="16">
         <v>1</v>
       </c>
       <c r="L60" s="7">
         <v>52</v>
       </c>
-      <c r="M60" s="14">
-        <v>1</v>
-      </c>
-      <c r="N60" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O60" s="14">
-        <v>1</v>
-      </c>
-      <c r="P60" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q60" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R60" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S60" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T60" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U60" s="20" t="str">
+      <c r="M60" s="16">
+        <v>1</v>
+      </c>
+      <c r="N60" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O60" s="16">
+        <v>1</v>
+      </c>
+      <c r="P60" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U60" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -5377,12 +5982,12 @@
       <c r="Z60" s="7">
         <v>-1</v>
       </c>
-      <c r="AA60" s="23" t="str">
+      <c r="AA60" s="21" t="str">
         <f t="shared" si="3"/>
         <v>52,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="61" spans="3:27">
+    <row r="61" ht="16.8" spans="3:27">
       <c r="C61" s="7">
         <v>55</v>
       </c>
@@ -5396,7 +6001,7 @@
       <c r="G61" s="7">
         <v>1</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="7">
         <v>-1</v>
       </c>
       <c r="I61" s="7">
@@ -5405,37 +6010,37 @@
       <c r="J61" s="1">
         <v>7</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="14">
         <v>1</v>
       </c>
       <c r="L61" s="7">
         <v>53</v>
       </c>
-      <c r="M61" s="12">
-        <v>1</v>
-      </c>
-      <c r="N61" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O61" s="12">
-        <v>1</v>
-      </c>
-      <c r="P61" s="12">
-        <v>-1</v>
-      </c>
-      <c r="Q61" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R61" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S61" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T61" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U61" s="20" t="str">
+      <c r="M61" s="14">
+        <v>1</v>
+      </c>
+      <c r="N61" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O61" s="14">
+        <v>1</v>
+      </c>
+      <c r="P61" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q61" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U61" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -5454,12 +6059,12 @@
       <c r="Z61" s="7">
         <v>-1</v>
       </c>
-      <c r="AA61" s="23" t="str">
+      <c r="AA61" s="21" t="str">
         <f t="shared" si="3"/>
         <v>53,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="62" spans="3:27">
+    <row r="62" ht="16.8" spans="3:27">
       <c r="C62" s="7">
         <v>56</v>
       </c>
@@ -5473,46 +6078,46 @@
       <c r="G62" s="7">
         <v>1</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="7">
         <v>-1</v>
       </c>
       <c r="I62" s="7">
         <v>4</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="17">
         <v>7</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62" s="16">
         <v>1</v>
       </c>
       <c r="L62" s="7">
         <v>54</v>
       </c>
-      <c r="M62" s="12">
-        <v>1</v>
-      </c>
-      <c r="N62" s="12">
-        <v>-1</v>
-      </c>
-      <c r="O62" s="12">
-        <v>1</v>
-      </c>
-      <c r="P62" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Q62" s="12">
-        <v>-1</v>
-      </c>
-      <c r="R62" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S62" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T62" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U62" s="20" t="str">
+      <c r="M62" s="14">
+        <v>1</v>
+      </c>
+      <c r="N62" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O62" s="14">
+        <v>1</v>
+      </c>
+      <c r="P62" s="18">
+        <v>-1</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="S62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U62" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
@@ -5531,15 +6136,15 @@
       <c r="Z62" s="7">
         <v>-1</v>
       </c>
-      <c r="AA62" s="23" t="str">
+      <c r="AA62" s="21" t="str">
         <f t="shared" si="3"/>
         <v>54,-1,-1,-1,-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/config/excel/Talent.xlsx
+++ b/config/excel/Talent.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZG\EastEden\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012F5F8D-8F1C-4E85-9839-AFF1FD9C99CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="32040" windowHeight="17020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talent" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -231,19 +237,27 @@
   </si>
   <si>
     <t>[]int32</t>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKH5001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,158 +299,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,194 +344,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -783,253 +474,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1095,91 +544,71 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:V62" totalsRowShown="0">
-  <autoFilter ref="C1:V62"/>
-  <tableColumns count="20">
-    <tableColumn id="1" name="天赋id"/>
-    <tableColumn id="2" name="天赋名"/>
-    <tableColumn id="3" name="类型"/>
-    <tableColumn id="4" name="子类型"/>
-    <tableColumn id="5" name="天赋最大等级"/>
-    <tableColumn id="6" name="天赋升级消耗ID"/>
-    <tableColumn id="7" name="拥有者id"/>
-    <tableColumn id="8" name="层级"/>
-    <tableColumn id="9" name="上一层天赋总等级限制"/>
-    <tableColumn id="10" name="前置天赋1"/>
-    <tableColumn id="11" name="前置天赋等级1"/>
-    <tableColumn id="12" name="前置天赋2"/>
-    <tableColumn id="13" name="前置天赋等级2"/>
-    <tableColumn id="14" name="属性1"/>
-    <tableColumn id="15" name="属性2"/>
-    <tableColumn id="16" name="属性3"/>
-    <tableColumn id="17" name="属性4"/>
-    <tableColumn id="18" name="属性5"/>
-    <tableColumn id="19" name="天赋等级对应的属性"/>
-    <tableColumn id="20" name="被动技能1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:W62" totalsRowShown="0">
+  <autoFilter ref="C1:W62" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="天赋id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="天赋名"/>
+    <tableColumn id="21" xr3:uid="{46D413EB-07FC-42F6-B7B8-0A9E6D06728C}" name="列1" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="类型"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="子类型"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="天赋最大等级"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="天赋升级消耗ID"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="拥有者id"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="层级"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="上一层天赋总等级限制"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="前置天赋1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="前置天赋等级1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="前置天赋2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="前置天赋等级2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="属性1"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="属性2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="属性3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="属性4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="属性5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="天赋等级对应的属性">
+      <calculatedColumnFormula>Q2&amp;","&amp;R2&amp;","&amp;S2&amp;","&amp;T2&amp;","&amp;U2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="被动技能1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1437,40 +866,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AA62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
-    <col min="13" max="15" width="15.375" style="1" customWidth="1"/>
-    <col min="16" max="20" width="11.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.75" style="1" customWidth="1"/>
-    <col min="22" max="26" width="12.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="26.875" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="3" max="7" width="10.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="16" width="15.375" style="1" customWidth="1"/>
+    <col min="17" max="21" width="11.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.75" style="1" customWidth="1"/>
+    <col min="23" max="27" width="12.75" style="1" customWidth="1"/>
+    <col min="28" max="28" width="26.875" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1484,98 +912,101 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="50" spans="1:27">
+    <row r="2" spans="1:28" ht="42.75">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -1584,19 +1015,20 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="14"/>
       <c r="W2" s="14"/>
       <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:27">
+    <row r="3" spans="1:28">
       <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
@@ -1606,57 +1038,60 @@
       <c r="D3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="15"/>
+      <c r="V3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="15"/>
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:27">
+    <row r="4" spans="1:28">
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
@@ -1666,77 +1101,80 @@
       <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="V4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Y4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AB4" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="1:28">
       <c r="B5" s="8" t="s">
         <v>65</v>
       </c>
@@ -1744,12 +1182,14 @@
       <c r="D5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -1760,15 +1200,16 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
-      <c r="AA5" s="22"/>
-    </row>
-    <row r="6" spans="2:27">
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="22"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="B6" s="8" t="s">
         <v>67</v>
       </c>
@@ -1779,7 +1220,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>68</v>
@@ -1793,7 +1234,7 @@
       <c r="I6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="9" t="s">
         <v>68</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -1811,69 +1252,72 @@
       <c r="O6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="15"/>
+      <c r="P6" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="15"/>
+      <c r="V6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="2:27">
+    <row r="7" spans="1:28">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7">
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
-        <v>-1</v>
-      </c>
       <c r="G7" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="14">
         <v>1</v>
       </c>
       <c r="L7" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M7" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O7" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P7" s="14">
         <v>1</v>
       </c>
       <c r="Q7" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="14">
         <v>-1</v>
       </c>
       <c r="S7" s="7">
@@ -1882,13 +1326,13 @@
       <c r="T7" s="7">
         <v>-1</v>
       </c>
-      <c r="U7" s="21" t="str">
-        <f>P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7</f>
+      <c r="U7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="21" t="str">
+        <f>Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7&amp;","&amp;U7</f>
         <v>1,-1,-1,-1,-1</v>
       </c>
-      <c r="V7" s="7">
-        <v>-1</v>
-      </c>
       <c r="W7" s="7">
         <v>-1</v>
       </c>
@@ -1901,56 +1345,59 @@
       <c r="Z7" s="7">
         <v>-1</v>
       </c>
-      <c r="AA7" s="21" t="str">
-        <f>V7&amp;","&amp;W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7</f>
+      <c r="AA7" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="21" t="str">
+        <f>W7&amp;","&amp;X7&amp;","&amp;Y7&amp;","&amp;Z7&amp;","&amp;AA7</f>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="8" ht="16.8" spans="3:27">
+    <row r="8" spans="1:28">
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="E8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
-        <v>-1</v>
-      </c>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1</v>
       </c>
       <c r="M8" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O8" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P8" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="14">
         <v>2</v>
       </c>
-      <c r="Q8" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="7">
+      <c r="R8" s="14">
         <v>-1</v>
       </c>
       <c r="S8" s="7">
@@ -1959,13 +1406,13 @@
       <c r="T8" s="7">
         <v>-1</v>
       </c>
-      <c r="U8" s="21" t="str">
-        <f t="shared" ref="U8:U39" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
+      <c r="U8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="21" t="str">
+        <f t="shared" ref="V8:V39" si="0">Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8&amp;","&amp;U8</f>
         <v>2,-1,-1,-1,-1</v>
       </c>
-      <c r="V8" s="7">
-        <v>-1</v>
-      </c>
       <c r="W8" s="7">
         <v>-1</v>
       </c>
@@ -1978,56 +1425,59 @@
       <c r="Z8" s="7">
         <v>-1</v>
       </c>
-      <c r="AA8" s="21" t="str">
-        <f t="shared" ref="AA8:AA39" si="1">V8&amp;","&amp;W8&amp;","&amp;X8&amp;","&amp;Y8&amp;","&amp;Z8</f>
+      <c r="AA8" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="21" t="str">
+        <f t="shared" ref="AB8:AB39" si="1">W8&amp;","&amp;X8&amp;","&amp;Y8&amp;","&amp;Z8&amp;","&amp;AA8</f>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="9" ht="16.8" spans="3:27">
+    <row r="9" spans="1:28">
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="E9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="7">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
-        <v>-1</v>
-      </c>
       <c r="G9" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="14">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="16">
-        <v>1</v>
-      </c>
-      <c r="N9" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="16">
-        <v>1</v>
-      </c>
-      <c r="P9" s="14">
-        <v>-1</v>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1</v>
+      </c>
+      <c r="O9" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="16">
+        <v>1</v>
       </c>
       <c r="Q9" s="14">
         <v>-1</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="14">
         <v>-1</v>
       </c>
       <c r="S9" s="7">
@@ -2036,15 +1486,15 @@
       <c r="T9" s="7">
         <v>-1</v>
       </c>
-      <c r="U9" s="21" t="str">
+      <c r="U9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V9" s="7">
-        <v>1</v>
-      </c>
       <c r="W9" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X9" s="7">
         <v>-1</v>
@@ -2055,56 +1505,59 @@
       <c r="Z9" s="7">
         <v>-1</v>
       </c>
-      <c r="AA9" s="21" t="str">
+      <c r="AA9" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="10" ht="16.8" spans="3:27">
+    <row r="10" spans="1:28">
       <c r="C10" s="7">
         <v>4</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="7">
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="7">
         <v>0</v>
       </c>
-      <c r="F10" s="7">
-        <v>-1</v>
-      </c>
       <c r="G10" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="16">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>2</v>
       </c>
-      <c r="M10" s="14">
-        <v>1</v>
-      </c>
       <c r="N10" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O10" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P10" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="14">
         <v>-1</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="14">
         <v>-1</v>
       </c>
       <c r="S10" s="7">
@@ -2113,16 +1566,16 @@
       <c r="T10" s="7">
         <v>-1</v>
       </c>
-      <c r="U10" s="21" t="str">
+      <c r="U10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V10" s="7">
+      <c r="W10" s="7">
         <v>2</v>
       </c>
-      <c r="W10" s="7">
-        <v>-1</v>
-      </c>
       <c r="X10" s="7">
         <v>-1</v>
       </c>
@@ -2132,56 +1585,59 @@
       <c r="Z10" s="7">
         <v>-1</v>
       </c>
-      <c r="AA10" s="21" t="str">
+      <c r="AA10" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>2,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="11" ht="16.8" spans="3:27">
+    <row r="11" spans="1:28">
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7">
+      <c r="E11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="7">
-        <v>-1</v>
-      </c>
       <c r="G11" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="14">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="M11" s="14">
-        <v>1</v>
-      </c>
       <c r="N11" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O11" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P11" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="14">
         <v>-1</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="14">
         <v>-1</v>
       </c>
       <c r="S11" s="7">
@@ -2190,16 +1646,16 @@
       <c r="T11" s="7">
         <v>-1</v>
       </c>
-      <c r="U11" s="21" t="str">
+      <c r="U11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V11" s="7">
+      <c r="W11" s="7">
         <v>3</v>
       </c>
-      <c r="W11" s="7">
-        <v>-1</v>
-      </c>
       <c r="X11" s="7">
         <v>-1</v>
       </c>
@@ -2209,56 +1665,59 @@
       <c r="Z11" s="7">
         <v>-1</v>
       </c>
-      <c r="AA11" s="21" t="str">
+      <c r="AA11" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB11" s="21" t="str">
         <f t="shared" si="1"/>
         <v>3,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="12" ht="16.8" spans="3:27">
+    <row r="12" spans="1:28">
       <c r="C12" s="7">
         <v>6</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7">
+      <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
-        <v>-1</v>
-      </c>
       <c r="G12" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="16">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
         <v>4</v>
       </c>
-      <c r="M12" s="16">
-        <v>1</v>
-      </c>
-      <c r="N12" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="16">
-        <v>1</v>
-      </c>
-      <c r="P12" s="14">
-        <v>-1</v>
+      <c r="N12" s="16">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="16">
+        <v>1</v>
       </c>
       <c r="Q12" s="14">
         <v>-1</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="14">
         <v>-1</v>
       </c>
       <c r="S12" s="7">
@@ -2267,16 +1726,16 @@
       <c r="T12" s="7">
         <v>-1</v>
       </c>
-      <c r="U12" s="21" t="str">
+      <c r="U12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V12" s="7">
+      <c r="W12" s="7">
         <v>4</v>
       </c>
-      <c r="W12" s="7">
-        <v>-1</v>
-      </c>
       <c r="X12" s="7">
         <v>-1</v>
       </c>
@@ -2286,56 +1745,59 @@
       <c r="Z12" s="7">
         <v>-1</v>
       </c>
-      <c r="AA12" s="21" t="str">
+      <c r="AA12" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB12" s="21" t="str">
         <f t="shared" si="1"/>
         <v>4,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="13" ht="16.8" spans="3:27">
+    <row r="13" spans="1:28">
       <c r="C13" s="7">
         <v>7</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7">
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="F13" s="7">
-        <v>-1</v>
-      </c>
       <c r="G13" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
         <v>4</v>
       </c>
-      <c r="K13" s="14">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
         <v>5</v>
       </c>
-      <c r="M13" s="14">
-        <v>1</v>
-      </c>
       <c r="N13" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O13" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P13" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="14">
         <v>-1</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="14">
         <v>-1</v>
       </c>
       <c r="S13" s="7">
@@ -2344,16 +1806,16 @@
       <c r="T13" s="7">
         <v>-1</v>
       </c>
-      <c r="U13" s="21" t="str">
+      <c r="U13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V13" s="7">
+      <c r="W13" s="7">
         <v>5</v>
       </c>
-      <c r="W13" s="7">
-        <v>-1</v>
-      </c>
       <c r="X13" s="7">
         <v>-1</v>
       </c>
@@ -2363,56 +1825,59 @@
       <c r="Z13" s="7">
         <v>-1</v>
       </c>
-      <c r="AA13" s="21" t="str">
+      <c r="AA13" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>5,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="14" ht="16.8" spans="3:27">
+    <row r="14" spans="1:28">
       <c r="C14" s="7">
         <v>8</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="7">
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
-        <v>-1</v>
-      </c>
       <c r="G14" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>4</v>
       </c>
-      <c r="K14" s="16">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="L14" s="16">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>6</v>
       </c>
-      <c r="M14" s="14">
-        <v>1</v>
-      </c>
       <c r="N14" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O14" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P14" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="14">
         <v>-1</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="14">
         <v>-1</v>
       </c>
       <c r="S14" s="7">
@@ -2421,16 +1886,16 @@
       <c r="T14" s="7">
         <v>-1</v>
       </c>
-      <c r="U14" s="21" t="str">
+      <c r="U14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V14" s="7">
+      <c r="W14" s="7">
         <v>6</v>
       </c>
-      <c r="W14" s="7">
-        <v>-1</v>
-      </c>
       <c r="X14" s="7">
         <v>-1</v>
       </c>
@@ -2440,56 +1905,59 @@
       <c r="Z14" s="7">
         <v>-1</v>
       </c>
-      <c r="AA14" s="21" t="str">
+      <c r="AA14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>6,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="15" ht="16.8" spans="3:27">
+    <row r="15" spans="1:28">
       <c r="C15" s="7">
         <v>9</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="7">
+      <c r="E15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="7">
-        <v>-1</v>
-      </c>
       <c r="G15" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
         <v>5</v>
       </c>
-      <c r="K15" s="14">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
         <v>7</v>
       </c>
-      <c r="M15" s="16">
-        <v>1</v>
-      </c>
-      <c r="N15" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="16">
-        <v>1</v>
-      </c>
-      <c r="P15" s="14">
-        <v>-1</v>
+      <c r="N15" s="16">
+        <v>1</v>
+      </c>
+      <c r="O15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="16">
+        <v>1</v>
       </c>
       <c r="Q15" s="14">
         <v>-1</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="14">
         <v>-1</v>
       </c>
       <c r="S15" s="7">
@@ -2498,16 +1966,16 @@
       <c r="T15" s="7">
         <v>-1</v>
       </c>
-      <c r="U15" s="21" t="str">
+      <c r="U15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V15" s="7">
+      <c r="W15" s="7">
         <v>7</v>
       </c>
-      <c r="W15" s="7">
-        <v>-1</v>
-      </c>
       <c r="X15" s="7">
         <v>-1</v>
       </c>
@@ -2517,56 +1985,59 @@
       <c r="Z15" s="7">
         <v>-1</v>
       </c>
-      <c r="AA15" s="21" t="str">
+      <c r="AA15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="21" t="str">
         <f t="shared" si="1"/>
         <v>7,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="16" ht="16.8" spans="3:27">
+    <row r="16" spans="1:28">
       <c r="C16" s="7">
         <v>10</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="7">
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="F16" s="7">
-        <v>-1</v>
-      </c>
       <c r="G16" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>5</v>
       </c>
-      <c r="K16" s="16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="L16" s="16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
         <v>8</v>
       </c>
-      <c r="M16" s="14">
-        <v>1</v>
-      </c>
       <c r="N16" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O16" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="14">
         <v>-1</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="14">
         <v>-1</v>
       </c>
       <c r="S16" s="7">
@@ -2575,16 +2046,16 @@
       <c r="T16" s="7">
         <v>-1</v>
       </c>
-      <c r="U16" s="21" t="str">
+      <c r="U16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V16" s="7">
+      <c r="W16" s="7">
         <v>8</v>
       </c>
-      <c r="W16" s="7">
-        <v>-1</v>
-      </c>
       <c r="X16" s="7">
         <v>-1</v>
       </c>
@@ -2594,56 +2065,59 @@
       <c r="Z16" s="7">
         <v>-1</v>
       </c>
-      <c r="AA16" s="21" t="str">
+      <c r="AA16" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="3:27">
+    <row r="17" spans="3:28">
       <c r="C17" s="7">
         <v>11</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7">
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="F17" s="7">
-        <v>-1</v>
-      </c>
       <c r="G17" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
         <v>6</v>
       </c>
-      <c r="K17" s="14">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
         <v>9</v>
       </c>
-      <c r="M17" s="14">
-        <v>1</v>
-      </c>
       <c r="N17" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="14">
         <v>-1</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="14">
         <v>-1</v>
       </c>
       <c r="S17" s="7">
@@ -2652,16 +2126,16 @@
       <c r="T17" s="7">
         <v>-1</v>
       </c>
-      <c r="U17" s="21" t="str">
+      <c r="U17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V17" s="7">
+      <c r="W17" s="7">
         <v>9</v>
       </c>
-      <c r="W17" s="7">
-        <v>-1</v>
-      </c>
       <c r="X17" s="7">
         <v>-1</v>
       </c>
@@ -2671,56 +2145,59 @@
       <c r="Z17" s="7">
         <v>-1</v>
       </c>
-      <c r="AA17" s="21" t="str">
+      <c r="AA17" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>9,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="18" ht="16.8" spans="3:27">
+    <row r="18" spans="3:28">
       <c r="C18" s="7">
         <v>12</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="7">
+      <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="F18" s="7">
-        <v>-1</v>
-      </c>
       <c r="G18" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
         <v>6</v>
       </c>
-      <c r="K18" s="16">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="L18" s="16">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
         <v>10</v>
       </c>
-      <c r="M18" s="16">
-        <v>1</v>
-      </c>
-      <c r="N18" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="16">
-        <v>1</v>
-      </c>
-      <c r="P18" s="14">
-        <v>-1</v>
+      <c r="N18" s="16">
+        <v>1</v>
+      </c>
+      <c r="O18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="16">
+        <v>1</v>
       </c>
       <c r="Q18" s="14">
         <v>-1</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="14">
         <v>-1</v>
       </c>
       <c r="S18" s="7">
@@ -2729,16 +2206,16 @@
       <c r="T18" s="7">
         <v>-1</v>
       </c>
-      <c r="U18" s="21" t="str">
+      <c r="U18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V18" s="7">
+      <c r="W18" s="7">
         <v>10</v>
       </c>
-      <c r="W18" s="7">
-        <v>-1</v>
-      </c>
       <c r="X18" s="7">
         <v>-1</v>
       </c>
@@ -2748,56 +2225,59 @@
       <c r="Z18" s="7">
         <v>-1</v>
       </c>
-      <c r="AA18" s="21" t="str">
+      <c r="AA18" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="21" t="str">
         <f t="shared" si="1"/>
         <v>10,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="3:27">
+    <row r="19" spans="3:28">
       <c r="C19" s="7">
         <v>13</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="F19" s="7">
-        <v>-1</v>
-      </c>
       <c r="G19" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
         <v>7</v>
       </c>
-      <c r="K19" s="14">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
         <v>11</v>
       </c>
-      <c r="M19" s="14">
-        <v>1</v>
-      </c>
       <c r="N19" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O19" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P19" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="14">
         <v>-1</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="14">
         <v>-1</v>
       </c>
       <c r="S19" s="7">
@@ -2806,16 +2286,16 @@
       <c r="T19" s="7">
         <v>-1</v>
       </c>
-      <c r="U19" s="21" t="str">
+      <c r="U19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V19" s="7">
+      <c r="W19" s="7">
         <v>11</v>
       </c>
-      <c r="W19" s="7">
-        <v>-1</v>
-      </c>
       <c r="X19" s="7">
         <v>-1</v>
       </c>
@@ -2825,56 +2305,59 @@
       <c r="Z19" s="7">
         <v>-1</v>
       </c>
-      <c r="AA19" s="21" t="str">
+      <c r="AA19" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>11,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="20" ht="16.8" spans="3:27">
+    <row r="20" spans="3:28">
       <c r="C20" s="7">
         <v>14</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="7">
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
-        <v>-1</v>
-      </c>
       <c r="G20" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H20" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
         <v>7</v>
       </c>
-      <c r="K20" s="16">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1">
+      <c r="L20" s="16">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <v>12</v>
       </c>
-      <c r="M20" s="14">
-        <v>1</v>
-      </c>
       <c r="N20" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O20" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P20" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="14">
         <v>-1</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="14">
         <v>-1</v>
       </c>
       <c r="S20" s="7">
@@ -2883,16 +2366,16 @@
       <c r="T20" s="7">
         <v>-1</v>
       </c>
-      <c r="U20" s="21" t="str">
+      <c r="U20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V20" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V20" s="7">
+      <c r="W20" s="7">
         <v>12</v>
       </c>
-      <c r="W20" s="7">
-        <v>-1</v>
-      </c>
       <c r="X20" s="7">
         <v>-1</v>
       </c>
@@ -2902,56 +2385,59 @@
       <c r="Z20" s="7">
         <v>-1</v>
       </c>
-      <c r="AA20" s="21" t="str">
+      <c r="AA20" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB20" s="21" t="str">
         <f t="shared" si="1"/>
         <v>12,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="3:27">
+    <row r="21" spans="3:28">
       <c r="C21" s="7">
         <v>15</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7">
+      <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="F21" s="7">
-        <v>-1</v>
-      </c>
       <c r="G21" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="7">
         <v>2</v>
       </c>
-      <c r="J21" s="14">
-        <v>1</v>
-      </c>
       <c r="K21" s="14">
         <v>1</v>
       </c>
       <c r="L21" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M21" s="16">
-        <v>1</v>
-      </c>
-      <c r="N21" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O21" s="16">
-        <v>1</v>
-      </c>
-      <c r="P21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="16">
+        <v>1</v>
+      </c>
+      <c r="O21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="14">
         <v>3</v>
       </c>
-      <c r="Q21" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R21" s="7">
+      <c r="R21" s="14">
         <v>-1</v>
       </c>
       <c r="S21" s="7">
@@ -2960,13 +2446,13 @@
       <c r="T21" s="7">
         <v>-1</v>
       </c>
-      <c r="U21" s="21" t="str">
+      <c r="U21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="21" t="str">
         <f t="shared" si="0"/>
         <v>3,-1,-1,-1,-1</v>
       </c>
-      <c r="V21" s="7">
-        <v>-1</v>
-      </c>
       <c r="W21" s="7">
         <v>-1</v>
       </c>
@@ -2979,56 +2465,59 @@
       <c r="Z21" s="7">
         <v>-1</v>
       </c>
-      <c r="AA21" s="21" t="str">
+      <c r="AA21" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB21" s="21" t="str">
         <f t="shared" si="1"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="22" ht="16.8" spans="3:27">
+    <row r="22" spans="3:28">
       <c r="C22" s="7">
         <v>16</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7">
+      <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="7">
         <v>0</v>
       </c>
-      <c r="F22" s="7">
-        <v>-1</v>
-      </c>
       <c r="G22" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="16">
-        <v>1</v>
-      </c>
-      <c r="L22" s="14">
-        <v>-1</v>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="16">
+        <v>1</v>
       </c>
       <c r="M22" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N22" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O22" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P22" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="14">
         <v>4</v>
       </c>
-      <c r="Q22" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R22" s="7">
+      <c r="R22" s="14">
         <v>-1</v>
       </c>
       <c r="S22" s="7">
@@ -3037,13 +2526,13 @@
       <c r="T22" s="7">
         <v>-1</v>
       </c>
-      <c r="U22" s="21" t="str">
+      <c r="U22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>4,-1,-1,-1,-1</v>
       </c>
-      <c r="V22" s="7">
-        <v>-1</v>
-      </c>
       <c r="W22" s="7">
         <v>-1</v>
       </c>
@@ -3056,56 +2545,59 @@
       <c r="Z22" s="7">
         <v>-1</v>
       </c>
-      <c r="AA22" s="21" t="str">
+      <c r="AA22" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="21" t="str">
         <f t="shared" si="1"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="23" ht="16.8" spans="3:27">
+    <row r="23" spans="3:28">
       <c r="C23" s="7">
         <v>17</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="E23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="F23" s="7">
-        <v>-1</v>
-      </c>
       <c r="G23" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="7">
         <v>2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="14">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="L23" s="14">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
         <v>15</v>
       </c>
-      <c r="M23" s="14">
-        <v>1</v>
-      </c>
       <c r="N23" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O23" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="14">
         <v>-1</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="14">
         <v>-1</v>
       </c>
       <c r="S23" s="7">
@@ -3114,16 +2606,16 @@
       <c r="T23" s="7">
         <v>-1</v>
       </c>
-      <c r="U23" s="21" t="str">
+      <c r="U23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V23" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V23" s="7">
+      <c r="W23" s="7">
         <v>15</v>
       </c>
-      <c r="W23" s="7">
-        <v>-1</v>
-      </c>
       <c r="X23" s="7">
         <v>-1</v>
       </c>
@@ -3133,56 +2625,59 @@
       <c r="Z23" s="7">
         <v>-1</v>
       </c>
-      <c r="AA23" s="21" t="str">
+      <c r="AA23" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB23" s="21" t="str">
         <f t="shared" si="1"/>
         <v>15,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="24" ht="16.8" spans="3:27">
+    <row r="24" spans="3:28">
       <c r="C24" s="7">
         <v>18</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7">
+      <c r="E24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="F24" s="7">
-        <v>-1</v>
-      </c>
       <c r="G24" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H24" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="7">
         <v>2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>2</v>
       </c>
-      <c r="K24" s="16">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="L24" s="16">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
         <v>16</v>
       </c>
-      <c r="M24" s="16">
-        <v>1</v>
-      </c>
-      <c r="N24" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O24" s="16">
-        <v>1</v>
-      </c>
-      <c r="P24" s="14">
-        <v>-1</v>
+      <c r="N24" s="16">
+        <v>1</v>
+      </c>
+      <c r="O24" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="16">
+        <v>1</v>
       </c>
       <c r="Q24" s="14">
         <v>-1</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="14">
         <v>-1</v>
       </c>
       <c r="S24" s="7">
@@ -3191,16 +2686,16 @@
       <c r="T24" s="7">
         <v>-1</v>
       </c>
-      <c r="U24" s="21" t="str">
+      <c r="U24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V24" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V24" s="7">
+      <c r="W24" s="7">
         <v>16</v>
       </c>
-      <c r="W24" s="7">
-        <v>-1</v>
-      </c>
       <c r="X24" s="7">
         <v>-1</v>
       </c>
@@ -3210,56 +2705,59 @@
       <c r="Z24" s="7">
         <v>-1</v>
       </c>
-      <c r="AA24" s="21" t="str">
+      <c r="AA24" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB24" s="21" t="str">
         <f t="shared" si="1"/>
         <v>16,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="25" ht="16.8" spans="3:27">
+    <row r="25" spans="3:28">
       <c r="C25" s="7">
         <v>19</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="7">
+      <c r="E25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="F25" s="7">
-        <v>-1</v>
-      </c>
       <c r="G25" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H25" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="7">
         <v>2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>3</v>
       </c>
-      <c r="K25" s="14">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
         <v>17</v>
       </c>
-      <c r="M25" s="14">
-        <v>1</v>
-      </c>
       <c r="N25" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O25" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P25" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="14">
         <v>-1</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="14">
         <v>-1</v>
       </c>
       <c r="S25" s="7">
@@ -3268,16 +2766,16 @@
       <c r="T25" s="7">
         <v>-1</v>
       </c>
-      <c r="U25" s="21" t="str">
+      <c r="U25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V25" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V25" s="7">
+      <c r="W25" s="7">
         <v>17</v>
       </c>
-      <c r="W25" s="7">
-        <v>-1</v>
-      </c>
       <c r="X25" s="7">
         <v>-1</v>
       </c>
@@ -3287,56 +2785,59 @@
       <c r="Z25" s="7">
         <v>-1</v>
       </c>
-      <c r="AA25" s="21" t="str">
+      <c r="AA25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB25" s="21" t="str">
         <f t="shared" si="1"/>
         <v>17,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="26" ht="16.8" spans="3:27">
+    <row r="26" spans="3:28">
       <c r="C26" s="7">
         <v>20</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="7">
+      <c r="E26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="F26" s="7">
-        <v>-1</v>
-      </c>
       <c r="G26" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="7">
         <v>2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>3</v>
       </c>
-      <c r="K26" s="16">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="L26" s="16">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
         <v>18</v>
       </c>
-      <c r="M26" s="14">
-        <v>1</v>
-      </c>
       <c r="N26" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P26" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="14">
         <v>-1</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="14">
         <v>-1</v>
       </c>
       <c r="S26" s="7">
@@ -3345,16 +2846,16 @@
       <c r="T26" s="7">
         <v>-1</v>
       </c>
-      <c r="U26" s="21" t="str">
+      <c r="U26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V26" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V26" s="7">
+      <c r="W26" s="7">
         <v>18</v>
       </c>
-      <c r="W26" s="7">
-        <v>-1</v>
-      </c>
       <c r="X26" s="7">
         <v>-1</v>
       </c>
@@ -3364,56 +2865,59 @@
       <c r="Z26" s="7">
         <v>-1</v>
       </c>
-      <c r="AA26" s="21" t="str">
+      <c r="AA26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB26" s="21" t="str">
         <f t="shared" si="1"/>
         <v>18,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="27" ht="16.8" spans="3:27">
+    <row r="27" spans="3:28">
       <c r="C27" s="7">
         <v>21</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="7">
+      <c r="E27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="F27" s="7">
-        <v>-1</v>
-      </c>
       <c r="G27" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="7">
         <v>2</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>4</v>
       </c>
-      <c r="K27" s="14">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="L27" s="14">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
         <v>19</v>
       </c>
-      <c r="M27" s="16">
-        <v>1</v>
-      </c>
-      <c r="N27" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O27" s="16">
-        <v>1</v>
-      </c>
-      <c r="P27" s="14">
-        <v>-1</v>
+      <c r="N27" s="16">
+        <v>1</v>
+      </c>
+      <c r="O27" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="16">
+        <v>1</v>
       </c>
       <c r="Q27" s="14">
         <v>-1</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="14">
         <v>-1</v>
       </c>
       <c r="S27" s="7">
@@ -3422,16 +2926,16 @@
       <c r="T27" s="7">
         <v>-1</v>
       </c>
-      <c r="U27" s="21" t="str">
+      <c r="U27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V27" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V27" s="7">
+      <c r="W27" s="7">
         <v>19</v>
       </c>
-      <c r="W27" s="7">
-        <v>-1</v>
-      </c>
       <c r="X27" s="7">
         <v>-1</v>
       </c>
@@ -3441,56 +2945,59 @@
       <c r="Z27" s="7">
         <v>-1</v>
       </c>
-      <c r="AA27" s="21" t="str">
+      <c r="AA27" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB27" s="21" t="str">
         <f t="shared" si="1"/>
         <v>19,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="28" ht="16.8" spans="3:27">
+    <row r="28" spans="3:28">
       <c r="C28" s="7">
         <v>22</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="7">
+      <c r="E28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="F28" s="7">
-        <v>-1</v>
-      </c>
       <c r="G28" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="7">
         <v>2</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>4</v>
       </c>
-      <c r="K28" s="16">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
+      <c r="L28" s="16">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
         <v>20</v>
       </c>
-      <c r="M28" s="14">
-        <v>1</v>
-      </c>
       <c r="N28" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O28" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P28" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="14">
         <v>-1</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="14">
         <v>-1</v>
       </c>
       <c r="S28" s="7">
@@ -3499,16 +3006,16 @@
       <c r="T28" s="7">
         <v>-1</v>
       </c>
-      <c r="U28" s="21" t="str">
+      <c r="U28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V28" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V28" s="7">
+      <c r="W28" s="7">
         <v>20</v>
       </c>
-      <c r="W28" s="7">
-        <v>-1</v>
-      </c>
       <c r="X28" s="7">
         <v>-1</v>
       </c>
@@ -3518,56 +3025,59 @@
       <c r="Z28" s="7">
         <v>-1</v>
       </c>
-      <c r="AA28" s="21" t="str">
+      <c r="AA28" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB28" s="21" t="str">
         <f t="shared" si="1"/>
         <v>20,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="29" ht="16.8" spans="3:27">
+    <row r="29" spans="3:28">
       <c r="C29" s="7">
         <v>23</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7">
+      <c r="E29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="F29" s="7">
-        <v>-1</v>
-      </c>
       <c r="G29" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="7">
         <v>2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>5</v>
       </c>
-      <c r="K29" s="14">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
         <v>21</v>
       </c>
-      <c r="M29" s="14">
-        <v>1</v>
-      </c>
       <c r="N29" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O29" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P29" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="14">
         <v>-1</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="14">
         <v>-1</v>
       </c>
       <c r="S29" s="7">
@@ -3576,16 +3086,16 @@
       <c r="T29" s="7">
         <v>-1</v>
       </c>
-      <c r="U29" s="21" t="str">
+      <c r="U29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V29" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V29" s="7">
+      <c r="W29" s="7">
         <v>21</v>
       </c>
-      <c r="W29" s="7">
-        <v>-1</v>
-      </c>
       <c r="X29" s="7">
         <v>-1</v>
       </c>
@@ -3595,56 +3105,59 @@
       <c r="Z29" s="7">
         <v>-1</v>
       </c>
-      <c r="AA29" s="21" t="str">
+      <c r="AA29" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB29" s="21" t="str">
         <f t="shared" si="1"/>
         <v>21,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="30" ht="16.8" spans="3:27">
+    <row r="30" spans="3:28">
       <c r="C30" s="7">
         <v>24</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="7">
+      <c r="E30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="F30" s="7">
-        <v>-1</v>
-      </c>
       <c r="G30" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="7">
         <v>2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>5</v>
       </c>
-      <c r="K30" s="16">
-        <v>1</v>
-      </c>
-      <c r="L30" s="1">
+      <c r="L30" s="16">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
         <v>22</v>
       </c>
-      <c r="M30" s="16">
-        <v>1</v>
-      </c>
-      <c r="N30" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O30" s="16">
-        <v>1</v>
-      </c>
-      <c r="P30" s="14">
-        <v>-1</v>
+      <c r="N30" s="16">
+        <v>1</v>
+      </c>
+      <c r="O30" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="16">
+        <v>1</v>
       </c>
       <c r="Q30" s="14">
         <v>-1</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="14">
         <v>-1</v>
       </c>
       <c r="S30" s="7">
@@ -3653,16 +3166,16 @@
       <c r="T30" s="7">
         <v>-1</v>
       </c>
-      <c r="U30" s="21" t="str">
+      <c r="U30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V30" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V30" s="7">
+      <c r="W30" s="7">
         <v>22</v>
       </c>
-      <c r="W30" s="7">
-        <v>-1</v>
-      </c>
       <c r="X30" s="7">
         <v>-1</v>
       </c>
@@ -3672,56 +3185,59 @@
       <c r="Z30" s="7">
         <v>-1</v>
       </c>
-      <c r="AA30" s="21" t="str">
+      <c r="AA30" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB30" s="21" t="str">
         <f t="shared" si="1"/>
         <v>22,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="31" ht="16.8" spans="3:27">
+    <row r="31" spans="3:28">
       <c r="C31" s="7">
         <v>25</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="7">
+      <c r="E31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="7">
         <v>0</v>
       </c>
-      <c r="F31" s="7">
-        <v>-1</v>
-      </c>
       <c r="G31" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H31" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="7">
         <v>2</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>6</v>
       </c>
-      <c r="K31" s="14">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="L31" s="14">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
         <v>23</v>
       </c>
-      <c r="M31" s="14">
-        <v>1</v>
-      </c>
       <c r="N31" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O31" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P31" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="14">
         <v>-1</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="14">
         <v>-1</v>
       </c>
       <c r="S31" s="7">
@@ -3730,16 +3246,16 @@
       <c r="T31" s="7">
         <v>-1</v>
       </c>
-      <c r="U31" s="21" t="str">
+      <c r="U31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V31" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V31" s="7">
+      <c r="W31" s="7">
         <v>23</v>
       </c>
-      <c r="W31" s="7">
-        <v>-1</v>
-      </c>
       <c r="X31" s="7">
         <v>-1</v>
       </c>
@@ -3749,56 +3265,59 @@
       <c r="Z31" s="7">
         <v>-1</v>
       </c>
-      <c r="AA31" s="21" t="str">
+      <c r="AA31" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB31" s="21" t="str">
         <f t="shared" si="1"/>
         <v>23,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="32" ht="16.8" spans="3:27">
+    <row r="32" spans="3:28">
       <c r="C32" s="7">
         <v>26</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="7">
+      <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="7">
         <v>0</v>
       </c>
-      <c r="F32" s="7">
-        <v>-1</v>
-      </c>
       <c r="G32" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H32" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="7">
         <v>2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>6</v>
       </c>
-      <c r="K32" s="16">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="L32" s="16">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
         <v>24</v>
       </c>
-      <c r="M32" s="14">
-        <v>1</v>
-      </c>
       <c r="N32" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O32" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P32" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="14">
         <v>-1</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="14">
         <v>-1</v>
       </c>
       <c r="S32" s="7">
@@ -3807,16 +3326,16 @@
       <c r="T32" s="7">
         <v>-1</v>
       </c>
-      <c r="U32" s="21" t="str">
+      <c r="U32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V32" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V32" s="7">
+      <c r="W32" s="7">
         <v>24</v>
       </c>
-      <c r="W32" s="7">
-        <v>-1</v>
-      </c>
       <c r="X32" s="7">
         <v>-1</v>
       </c>
@@ -3826,56 +3345,59 @@
       <c r="Z32" s="7">
         <v>-1</v>
       </c>
-      <c r="AA32" s="21" t="str">
+      <c r="AA32" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB32" s="21" t="str">
         <f t="shared" si="1"/>
         <v>24,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="33" ht="16.8" spans="3:27">
+    <row r="33" spans="3:28">
       <c r="C33" s="7">
         <v>27</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="7">
+      <c r="E33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="7">
         <v>0</v>
       </c>
-      <c r="F33" s="7">
-        <v>-1</v>
-      </c>
       <c r="G33" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="7">
         <v>2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>7</v>
       </c>
-      <c r="K33" s="14">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1">
+      <c r="L33" s="14">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
         <v>25</v>
       </c>
-      <c r="M33" s="16">
-        <v>1</v>
-      </c>
-      <c r="N33" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O33" s="16">
-        <v>1</v>
-      </c>
-      <c r="P33" s="14">
-        <v>-1</v>
+      <c r="N33" s="16">
+        <v>1</v>
+      </c>
+      <c r="O33" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="16">
+        <v>1</v>
       </c>
       <c r="Q33" s="14">
         <v>-1</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="14">
         <v>-1</v>
       </c>
       <c r="S33" s="7">
@@ -3884,16 +3406,16 @@
       <c r="T33" s="7">
         <v>-1</v>
       </c>
-      <c r="U33" s="21" t="str">
+      <c r="U33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V33" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V33" s="7">
+      <c r="W33" s="7">
         <v>25</v>
       </c>
-      <c r="W33" s="7">
-        <v>-1</v>
-      </c>
       <c r="X33" s="7">
         <v>-1</v>
       </c>
@@ -3903,56 +3425,59 @@
       <c r="Z33" s="7">
         <v>-1</v>
       </c>
-      <c r="AA33" s="21" t="str">
+      <c r="AA33" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB33" s="21" t="str">
         <f t="shared" si="1"/>
         <v>25,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="34" ht="16.8" spans="3:27">
+    <row r="34" spans="3:28">
       <c r="C34" s="7">
         <v>28</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="7">
+      <c r="E34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="7">
-        <v>-1</v>
-      </c>
       <c r="G34" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="7">
         <v>2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>7</v>
       </c>
-      <c r="K34" s="16">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="L34" s="16">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
         <v>26</v>
       </c>
-      <c r="M34" s="14">
-        <v>1</v>
-      </c>
       <c r="N34" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O34" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P34" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="14">
         <v>-1</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="14">
         <v>-1</v>
       </c>
       <c r="S34" s="7">
@@ -3961,16 +3486,16 @@
       <c r="T34" s="7">
         <v>-1</v>
       </c>
-      <c r="U34" s="21" t="str">
+      <c r="U34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V34" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V34" s="7">
+      <c r="W34" s="7">
         <v>26</v>
       </c>
-      <c r="W34" s="7">
-        <v>-1</v>
-      </c>
       <c r="X34" s="7">
         <v>-1</v>
       </c>
@@ -3980,56 +3505,59 @@
       <c r="Z34" s="7">
         <v>-1</v>
       </c>
-      <c r="AA34" s="21" t="str">
+      <c r="AA34" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB34" s="21" t="str">
         <f t="shared" si="1"/>
         <v>26,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="35" ht="16.8" spans="3:27">
+    <row r="35" spans="3:28">
       <c r="C35" s="7">
         <v>29</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="7">
+      <c r="E35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="F35" s="7">
-        <v>-1</v>
-      </c>
       <c r="G35" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="7">
         <v>3</v>
       </c>
-      <c r="J35" s="14">
-        <v>1</v>
-      </c>
       <c r="K35" s="14">
         <v>1</v>
       </c>
       <c r="L35" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M35" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N35" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O35" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P35" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="14">
         <v>5</v>
       </c>
-      <c r="Q35" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R35" s="7">
+      <c r="R35" s="14">
         <v>-1</v>
       </c>
       <c r="S35" s="7">
@@ -4038,13 +3566,13 @@
       <c r="T35" s="7">
         <v>-1</v>
       </c>
-      <c r="U35" s="21" t="str">
+      <c r="U35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V35" s="21" t="str">
         <f t="shared" si="0"/>
         <v>5,-1,-1,-1,-1</v>
       </c>
-      <c r="V35" s="7">
-        <v>-1</v>
-      </c>
       <c r="W35" s="7">
         <v>-1</v>
       </c>
@@ -4057,56 +3585,59 @@
       <c r="Z35" s="7">
         <v>-1</v>
       </c>
-      <c r="AA35" s="21" t="str">
+      <c r="AA35" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB35" s="21" t="str">
         <f t="shared" si="1"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="36" ht="16.8" spans="3:27">
+    <row r="36" spans="3:28">
       <c r="C36" s="7">
         <v>30</v>
       </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="7">
+      <c r="E36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="F36" s="7">
-        <v>-1</v>
-      </c>
       <c r="G36" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="7">
         <v>3</v>
       </c>
-      <c r="J36" s="1">
-        <v>1</v>
-      </c>
-      <c r="K36" s="16">
-        <v>1</v>
-      </c>
-      <c r="L36" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="16">
-        <v>1</v>
-      </c>
-      <c r="N36" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O36" s="16">
-        <v>1</v>
-      </c>
-      <c r="P36" s="14">
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="16">
+        <v>1</v>
+      </c>
+      <c r="M36" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="16">
+        <v>1</v>
+      </c>
+      <c r="O36" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="14">
         <v>6</v>
       </c>
-      <c r="Q36" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R36" s="7">
+      <c r="R36" s="14">
         <v>-1</v>
       </c>
       <c r="S36" s="7">
@@ -4115,13 +3646,13 @@
       <c r="T36" s="7">
         <v>-1</v>
       </c>
-      <c r="U36" s="21" t="str">
+      <c r="U36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>6,-1,-1,-1,-1</v>
       </c>
-      <c r="V36" s="7">
-        <v>-1</v>
-      </c>
       <c r="W36" s="7">
         <v>-1</v>
       </c>
@@ -4134,56 +3665,59 @@
       <c r="Z36" s="7">
         <v>-1</v>
       </c>
-      <c r="AA36" s="21" t="str">
+      <c r="AA36" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB36" s="21" t="str">
         <f t="shared" si="1"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="37" ht="16.8" spans="3:27">
+    <row r="37" spans="3:28">
       <c r="C37" s="7">
         <v>31</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="7">
+      <c r="E37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="F37" s="7">
-        <v>-1</v>
-      </c>
       <c r="G37" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="7">
         <v>3</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>2</v>
       </c>
-      <c r="K37" s="14">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1">
+      <c r="L37" s="14">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
         <v>29</v>
       </c>
-      <c r="M37" s="14">
-        <v>1</v>
-      </c>
       <c r="N37" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O37" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P37" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="14">
         <v>-1</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="14">
         <v>-1</v>
       </c>
       <c r="S37" s="7">
@@ -4192,16 +3726,16 @@
       <c r="T37" s="7">
         <v>-1</v>
       </c>
-      <c r="U37" s="21" t="str">
+      <c r="U37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V37" s="1">
+      <c r="W37" s="1">
         <v>29</v>
       </c>
-      <c r="W37" s="7">
-        <v>-1</v>
-      </c>
       <c r="X37" s="7">
         <v>-1</v>
       </c>
@@ -4211,56 +3745,59 @@
       <c r="Z37" s="7">
         <v>-1</v>
       </c>
-      <c r="AA37" s="21" t="str">
+      <c r="AA37" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB37" s="21" t="str">
         <f t="shared" si="1"/>
         <v>29,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="38" ht="16.8" spans="3:27">
+    <row r="38" spans="3:28">
       <c r="C38" s="7">
         <v>32</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="7">
+      <c r="E38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="F38" s="7">
-        <v>-1</v>
-      </c>
       <c r="G38" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="7">
         <v>3</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>2</v>
       </c>
-      <c r="K38" s="16">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1">
+      <c r="L38" s="16">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
         <v>30</v>
       </c>
-      <c r="M38" s="14">
-        <v>1</v>
-      </c>
       <c r="N38" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O38" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P38" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="14">
         <v>-1</v>
       </c>
-      <c r="R38" s="7">
+      <c r="R38" s="14">
         <v>-1</v>
       </c>
       <c r="S38" s="7">
@@ -4269,16 +3806,16 @@
       <c r="T38" s="7">
         <v>-1</v>
       </c>
-      <c r="U38" s="21" t="str">
+      <c r="U38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V38" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <v>30</v>
       </c>
-      <c r="W38" s="7">
-        <v>-1</v>
-      </c>
       <c r="X38" s="7">
         <v>-1</v>
       </c>
@@ -4288,56 +3825,59 @@
       <c r="Z38" s="7">
         <v>-1</v>
       </c>
-      <c r="AA38" s="21" t="str">
+      <c r="AA38" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB38" s="21" t="str">
         <f t="shared" si="1"/>
         <v>30,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="39" ht="16.8" spans="3:27">
+    <row r="39" spans="3:28">
       <c r="C39" s="7">
         <v>33</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="7">
+      <c r="E39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="F39" s="7">
-        <v>-1</v>
-      </c>
       <c r="G39" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="7">
         <v>3</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>3</v>
       </c>
-      <c r="K39" s="14">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1">
+      <c r="L39" s="14">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
         <v>31</v>
       </c>
-      <c r="M39" s="16">
-        <v>1</v>
-      </c>
-      <c r="N39" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O39" s="16">
-        <v>1</v>
-      </c>
-      <c r="P39" s="14">
-        <v>-1</v>
+      <c r="N39" s="16">
+        <v>1</v>
+      </c>
+      <c r="O39" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="16">
+        <v>1</v>
       </c>
       <c r="Q39" s="14">
         <v>-1</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="14">
         <v>-1</v>
       </c>
       <c r="S39" s="7">
@@ -4346,16 +3886,16 @@
       <c r="T39" s="7">
         <v>-1</v>
       </c>
-      <c r="U39" s="21" t="str">
+      <c r="U39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V39" s="21" t="str">
         <f t="shared" si="0"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>31</v>
       </c>
-      <c r="W39" s="7">
-        <v>-1</v>
-      </c>
       <c r="X39" s="7">
         <v>-1</v>
       </c>
@@ -4365,56 +3905,59 @@
       <c r="Z39" s="7">
         <v>-1</v>
       </c>
-      <c r="AA39" s="21" t="str">
+      <c r="AA39" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB39" s="21" t="str">
         <f t="shared" si="1"/>
         <v>31,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="40" ht="16.8" spans="3:27">
+    <row r="40" spans="3:28">
       <c r="C40" s="7">
         <v>34</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="7">
+      <c r="E40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="F40" s="7">
-        <v>-1</v>
-      </c>
       <c r="G40" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="7">
         <v>3</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>3</v>
       </c>
-      <c r="K40" s="16">
-        <v>1</v>
-      </c>
-      <c r="L40" s="1">
+      <c r="L40" s="16">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
         <v>32</v>
       </c>
-      <c r="M40" s="14">
-        <v>1</v>
-      </c>
       <c r="N40" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O40" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P40" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="14">
         <v>-1</v>
       </c>
-      <c r="R40" s="7">
+      <c r="R40" s="14">
         <v>-1</v>
       </c>
       <c r="S40" s="7">
@@ -4423,16 +3966,16 @@
       <c r="T40" s="7">
         <v>-1</v>
       </c>
-      <c r="U40" s="21" t="str">
-        <f t="shared" ref="U40:U62" si="2">P40&amp;","&amp;Q40&amp;","&amp;R40&amp;","&amp;S40&amp;","&amp;T40</f>
+      <c r="U40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V40" s="21" t="str">
+        <f t="shared" ref="V40:V62" si="2">Q40&amp;","&amp;R40&amp;","&amp;S40&amp;","&amp;T40&amp;","&amp;U40</f>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V40" s="1">
+      <c r="W40" s="1">
         <v>32</v>
       </c>
-      <c r="W40" s="7">
-        <v>-1</v>
-      </c>
       <c r="X40" s="7">
         <v>-1</v>
       </c>
@@ -4442,56 +3985,59 @@
       <c r="Z40" s="7">
         <v>-1</v>
       </c>
-      <c r="AA40" s="21" t="str">
-        <f t="shared" ref="AA40:AA62" si="3">V40&amp;","&amp;W40&amp;","&amp;X40&amp;","&amp;Y40&amp;","&amp;Z40</f>
+      <c r="AA40" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB40" s="21" t="str">
+        <f t="shared" ref="AB40:AB62" si="3">W40&amp;","&amp;X40&amp;","&amp;Y40&amp;","&amp;Z40&amp;","&amp;AA40</f>
         <v>32,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="41" ht="16.8" spans="3:27">
+    <row r="41" spans="3:28">
       <c r="C41" s="7">
         <v>35</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="7">
+      <c r="E41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="F41" s="7">
-        <v>-1</v>
-      </c>
       <c r="G41" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H41" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="7">
         <v>3</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>4</v>
       </c>
-      <c r="K41" s="14">
-        <v>1</v>
-      </c>
-      <c r="L41" s="1">
+      <c r="L41" s="14">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
         <v>33</v>
       </c>
-      <c r="M41" s="14">
-        <v>1</v>
-      </c>
       <c r="N41" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O41" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P41" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="14">
         <v>-1</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="14">
         <v>-1</v>
       </c>
       <c r="S41" s="7">
@@ -4500,16 +4046,16 @@
       <c r="T41" s="7">
         <v>-1</v>
       </c>
-      <c r="U41" s="21" t="str">
+      <c r="U41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V41" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>33</v>
       </c>
-      <c r="W41" s="7">
-        <v>-1</v>
-      </c>
       <c r="X41" s="7">
         <v>-1</v>
       </c>
@@ -4519,56 +4065,59 @@
       <c r="Z41" s="7">
         <v>-1</v>
       </c>
-      <c r="AA41" s="21" t="str">
+      <c r="AA41" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB41" s="21" t="str">
         <f t="shared" si="3"/>
         <v>33,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="42" ht="16.8" spans="3:27">
+    <row r="42" spans="3:28">
       <c r="C42" s="7">
         <v>36</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="7">
+      <c r="E42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="F42" s="7">
-        <v>-1</v>
-      </c>
       <c r="G42" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="7">
         <v>3</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>4</v>
       </c>
-      <c r="K42" s="16">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
+      <c r="L42" s="16">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
         <v>34</v>
       </c>
-      <c r="M42" s="16">
-        <v>1</v>
-      </c>
-      <c r="N42" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O42" s="16">
-        <v>1</v>
-      </c>
-      <c r="P42" s="14">
-        <v>-1</v>
+      <c r="N42" s="16">
+        <v>1</v>
+      </c>
+      <c r="O42" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="16">
+        <v>1</v>
       </c>
       <c r="Q42" s="14">
         <v>-1</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="14">
         <v>-1</v>
       </c>
       <c r="S42" s="7">
@@ -4577,16 +4126,16 @@
       <c r="T42" s="7">
         <v>-1</v>
       </c>
-      <c r="U42" s="21" t="str">
+      <c r="U42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V42" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>34</v>
       </c>
-      <c r="W42" s="7">
-        <v>-1</v>
-      </c>
       <c r="X42" s="7">
         <v>-1</v>
       </c>
@@ -4596,56 +4145,59 @@
       <c r="Z42" s="7">
         <v>-1</v>
       </c>
-      <c r="AA42" s="21" t="str">
+      <c r="AA42" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB42" s="21" t="str">
         <f t="shared" si="3"/>
         <v>34,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="43" ht="16.8" spans="3:27">
+    <row r="43" spans="3:28">
       <c r="C43" s="7">
         <v>37</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="7">
+      <c r="E43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="7">
         <v>0</v>
       </c>
-      <c r="F43" s="7">
-        <v>-1</v>
-      </c>
       <c r="G43" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H43" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J43" s="7">
         <v>3</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>5</v>
       </c>
-      <c r="K43" s="14">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1">
+      <c r="L43" s="14">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
         <v>35</v>
       </c>
-      <c r="M43" s="14">
-        <v>1</v>
-      </c>
       <c r="N43" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O43" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P43" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="14">
         <v>-1</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="14">
         <v>-1</v>
       </c>
       <c r="S43" s="7">
@@ -4654,16 +4206,16 @@
       <c r="T43" s="7">
         <v>-1</v>
       </c>
-      <c r="U43" s="21" t="str">
+      <c r="U43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V43" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>35</v>
       </c>
-      <c r="W43" s="7">
-        <v>-1</v>
-      </c>
       <c r="X43" s="7">
         <v>-1</v>
       </c>
@@ -4673,56 +4225,59 @@
       <c r="Z43" s="7">
         <v>-1</v>
       </c>
-      <c r="AA43" s="21" t="str">
+      <c r="AA43" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB43" s="21" t="str">
         <f t="shared" si="3"/>
         <v>35,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="44" ht="16.8" spans="3:27">
+    <row r="44" spans="3:28">
       <c r="C44" s="7">
         <v>38</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="7">
+      <c r="E44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="7">
         <v>0</v>
       </c>
-      <c r="F44" s="7">
-        <v>-1</v>
-      </c>
       <c r="G44" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H44" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J44" s="7">
         <v>3</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>5</v>
       </c>
-      <c r="K44" s="16">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1">
+      <c r="L44" s="16">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
         <v>36</v>
       </c>
-      <c r="M44" s="14">
-        <v>1</v>
-      </c>
       <c r="N44" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O44" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P44" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="14">
         <v>-1</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="14">
         <v>-1</v>
       </c>
       <c r="S44" s="7">
@@ -4731,16 +4286,16 @@
       <c r="T44" s="7">
         <v>-1</v>
       </c>
-      <c r="U44" s="21" t="str">
+      <c r="U44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V44" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>36</v>
       </c>
-      <c r="W44" s="7">
-        <v>-1</v>
-      </c>
       <c r="X44" s="7">
         <v>-1</v>
       </c>
@@ -4750,56 +4305,59 @@
       <c r="Z44" s="7">
         <v>-1</v>
       </c>
-      <c r="AA44" s="21" t="str">
+      <c r="AA44" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB44" s="21" t="str">
         <f t="shared" si="3"/>
         <v>36,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="45" ht="16.8" spans="3:27">
+    <row r="45" spans="3:28">
       <c r="C45" s="7">
         <v>39</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="7">
+      <c r="E45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="7">
         <v>0</v>
       </c>
-      <c r="F45" s="7">
-        <v>-1</v>
-      </c>
       <c r="G45" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H45" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="7">
         <v>3</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>6</v>
       </c>
-      <c r="K45" s="14">
-        <v>1</v>
-      </c>
-      <c r="L45" s="1">
+      <c r="L45" s="14">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
         <v>37</v>
       </c>
-      <c r="M45" s="16">
-        <v>1</v>
-      </c>
-      <c r="N45" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O45" s="16">
-        <v>1</v>
-      </c>
-      <c r="P45" s="14">
-        <v>-1</v>
+      <c r="N45" s="16">
+        <v>1</v>
+      </c>
+      <c r="O45" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="16">
+        <v>1</v>
       </c>
       <c r="Q45" s="14">
         <v>-1</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="14">
         <v>-1</v>
       </c>
       <c r="S45" s="7">
@@ -4808,16 +4366,16 @@
       <c r="T45" s="7">
         <v>-1</v>
       </c>
-      <c r="U45" s="21" t="str">
+      <c r="U45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V45" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>37</v>
       </c>
-      <c r="W45" s="7">
-        <v>-1</v>
-      </c>
       <c r="X45" s="7">
         <v>-1</v>
       </c>
@@ -4827,56 +4385,59 @@
       <c r="Z45" s="7">
         <v>-1</v>
       </c>
-      <c r="AA45" s="21" t="str">
+      <c r="AA45" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB45" s="21" t="str">
         <f t="shared" si="3"/>
         <v>37,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="46" ht="16.8" spans="3:27">
+    <row r="46" spans="3:28">
       <c r="C46" s="7">
         <v>40</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="7">
+      <c r="E46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="7">
         <v>0</v>
       </c>
-      <c r="F46" s="7">
-        <v>-1</v>
-      </c>
       <c r="G46" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H46" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="7">
         <v>3</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>6</v>
       </c>
-      <c r="K46" s="16">
-        <v>1</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="L46" s="16">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
         <v>38</v>
       </c>
-      <c r="M46" s="14">
-        <v>1</v>
-      </c>
       <c r="N46" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O46" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="14">
         <v>-1</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="14">
         <v>-1</v>
       </c>
       <c r="S46" s="7">
@@ -4885,16 +4446,16 @@
       <c r="T46" s="7">
         <v>-1</v>
       </c>
-      <c r="U46" s="21" t="str">
+      <c r="U46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V46" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V46" s="1">
+      <c r="W46" s="1">
         <v>38</v>
       </c>
-      <c r="W46" s="7">
-        <v>-1</v>
-      </c>
       <c r="X46" s="7">
         <v>-1</v>
       </c>
@@ -4904,56 +4465,59 @@
       <c r="Z46" s="7">
         <v>-1</v>
       </c>
-      <c r="AA46" s="21" t="str">
+      <c r="AA46" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB46" s="21" t="str">
         <f t="shared" si="3"/>
         <v>38,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="47" ht="16.8" spans="3:27">
+    <row r="47" spans="3:28">
       <c r="C47" s="7">
         <v>41</v>
       </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="7">
+      <c r="E47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="7">
         <v>0</v>
       </c>
-      <c r="F47" s="7">
-        <v>-1</v>
-      </c>
       <c r="G47" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H47" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J47" s="7">
         <v>3</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>7</v>
       </c>
-      <c r="K47" s="14">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1">
+      <c r="L47" s="14">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
         <v>39</v>
       </c>
-      <c r="M47" s="14">
-        <v>1</v>
-      </c>
       <c r="N47" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O47" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P47" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="14">
         <v>-1</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="14">
         <v>-1</v>
       </c>
       <c r="S47" s="7">
@@ -4962,16 +4526,16 @@
       <c r="T47" s="7">
         <v>-1</v>
       </c>
-      <c r="U47" s="21" t="str">
+      <c r="U47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V47" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>39</v>
       </c>
-      <c r="W47" s="7">
-        <v>-1</v>
-      </c>
       <c r="X47" s="7">
         <v>-1</v>
       </c>
@@ -4981,56 +4545,59 @@
       <c r="Z47" s="7">
         <v>-1</v>
       </c>
-      <c r="AA47" s="21" t="str">
+      <c r="AA47" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB47" s="21" t="str">
         <f t="shared" si="3"/>
         <v>39,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="48" ht="16.8" spans="3:27">
+    <row r="48" spans="3:28">
       <c r="C48" s="7">
         <v>42</v>
       </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="7">
+      <c r="E48" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="7">
         <v>0</v>
       </c>
-      <c r="F48" s="7">
-        <v>-1</v>
-      </c>
       <c r="G48" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H48" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="7">
         <v>3</v>
       </c>
-      <c r="J48" s="17">
+      <c r="K48" s="17">
         <v>7</v>
       </c>
-      <c r="K48" s="16">
-        <v>1</v>
-      </c>
-      <c r="L48" s="1">
+      <c r="L48" s="16">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
         <v>40</v>
       </c>
-      <c r="M48" s="16">
-        <v>1</v>
-      </c>
-      <c r="N48" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O48" s="16">
-        <v>1</v>
-      </c>
-      <c r="P48" s="18">
-        <v>-1</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R48" s="7">
+      <c r="N48" s="16">
+        <v>1</v>
+      </c>
+      <c r="O48" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="18">
+        <v>-1</v>
+      </c>
+      <c r="R48" s="14">
         <v>-1</v>
       </c>
       <c r="S48" s="7">
@@ -5039,16 +4606,16 @@
       <c r="T48" s="7">
         <v>-1</v>
       </c>
-      <c r="U48" s="21" t="str">
+      <c r="U48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V48" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V48" s="1">
+      <c r="W48" s="1">
         <v>40</v>
       </c>
-      <c r="W48" s="7">
-        <v>-1</v>
-      </c>
       <c r="X48" s="7">
         <v>-1</v>
       </c>
@@ -5058,56 +4625,59 @@
       <c r="Z48" s="7">
         <v>-1</v>
       </c>
-      <c r="AA48" s="21" t="str">
+      <c r="AA48" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB48" s="21" t="str">
         <f t="shared" si="3"/>
         <v>40,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="49" ht="16.8" spans="3:27">
+    <row r="49" spans="3:28">
       <c r="C49" s="7">
         <v>43</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="7">
+      <c r="E49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="7">
         <v>0</v>
       </c>
-      <c r="F49" s="7">
-        <v>-1</v>
-      </c>
       <c r="G49" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H49" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J49" s="7">
         <v>4</v>
       </c>
-      <c r="J49" s="14">
-        <v>1</v>
-      </c>
       <c r="K49" s="14">
         <v>1</v>
       </c>
       <c r="L49" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M49" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N49" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O49" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P49" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="14">
         <v>7</v>
       </c>
-      <c r="Q49" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R49" s="7">
+      <c r="R49" s="14">
         <v>-1</v>
       </c>
       <c r="S49" s="7">
@@ -5116,13 +4686,13 @@
       <c r="T49" s="7">
         <v>-1</v>
       </c>
-      <c r="U49" s="21" t="str">
+      <c r="U49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V49" s="21" t="str">
         <f t="shared" si="2"/>
         <v>7,-1,-1,-1,-1</v>
       </c>
-      <c r="V49" s="7">
-        <v>-1</v>
-      </c>
       <c r="W49" s="7">
         <v>-1</v>
       </c>
@@ -5135,56 +4705,59 @@
       <c r="Z49" s="7">
         <v>-1</v>
       </c>
-      <c r="AA49" s="21" t="str">
+      <c r="AA49" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB49" s="21" t="str">
         <f t="shared" si="3"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="50" ht="16.8" spans="3:27">
+    <row r="50" spans="3:28">
       <c r="C50" s="7">
         <v>44</v>
       </c>
       <c r="D50" s="7"/>
-      <c r="E50" s="7">
+      <c r="E50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="7">
         <v>0</v>
       </c>
-      <c r="F50" s="7">
-        <v>-1</v>
-      </c>
       <c r="G50" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H50" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J50" s="7">
         <v>4</v>
       </c>
-      <c r="J50" s="1">
-        <v>1</v>
-      </c>
-      <c r="K50" s="16">
-        <v>1</v>
-      </c>
-      <c r="L50" s="14">
-        <v>-1</v>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="16">
+        <v>1</v>
       </c>
       <c r="M50" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N50" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O50" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P50" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="14">
         <v>8</v>
       </c>
-      <c r="Q50" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R50" s="7">
+      <c r="R50" s="14">
         <v>-1</v>
       </c>
       <c r="S50" s="7">
@@ -5193,13 +4766,13 @@
       <c r="T50" s="7">
         <v>-1</v>
       </c>
-      <c r="U50" s="21" t="str">
+      <c r="U50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V50" s="21" t="str">
         <f t="shared" si="2"/>
         <v>8,-1,-1,-1,-1</v>
       </c>
-      <c r="V50" s="7">
-        <v>-1</v>
-      </c>
       <c r="W50" s="7">
         <v>-1</v>
       </c>
@@ -5212,56 +4785,59 @@
       <c r="Z50" s="7">
         <v>-1</v>
       </c>
-      <c r="AA50" s="21" t="str">
+      <c r="AA50" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB50" s="21" t="str">
         <f t="shared" si="3"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="51" ht="16.8" spans="3:27">
+    <row r="51" spans="3:28">
       <c r="C51" s="7">
         <v>45</v>
       </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="7">
+      <c r="E51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="7">
         <v>0</v>
       </c>
-      <c r="F51" s="7">
-        <v>-1</v>
-      </c>
       <c r="G51" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H51" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J51" s="7">
         <v>4</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>2</v>
       </c>
-      <c r="K51" s="14">
-        <v>1</v>
-      </c>
-      <c r="L51" s="7">
+      <c r="L51" s="14">
+        <v>1</v>
+      </c>
+      <c r="M51" s="7">
         <v>43</v>
       </c>
-      <c r="M51" s="16">
-        <v>1</v>
-      </c>
-      <c r="N51" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O51" s="16">
-        <v>1</v>
-      </c>
-      <c r="P51" s="14">
-        <v>-1</v>
+      <c r="N51" s="16">
+        <v>1</v>
+      </c>
+      <c r="O51" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="16">
+        <v>1</v>
       </c>
       <c r="Q51" s="14">
         <v>-1</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="14">
         <v>-1</v>
       </c>
       <c r="S51" s="7">
@@ -5270,16 +4846,16 @@
       <c r="T51" s="7">
         <v>-1</v>
       </c>
-      <c r="U51" s="21" t="str">
+      <c r="U51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V51" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V51" s="7">
+      <c r="W51" s="7">
         <v>43</v>
       </c>
-      <c r="W51" s="7">
-        <v>-1</v>
-      </c>
       <c r="X51" s="7">
         <v>-1</v>
       </c>
@@ -5289,56 +4865,59 @@
       <c r="Z51" s="7">
         <v>-1</v>
       </c>
-      <c r="AA51" s="21" t="str">
+      <c r="AA51" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB51" s="21" t="str">
         <f t="shared" si="3"/>
         <v>43,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="52" ht="16.8" spans="3:27">
+    <row r="52" spans="3:28">
       <c r="C52" s="7">
         <v>46</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="7">
+      <c r="E52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="7">
         <v>0</v>
       </c>
-      <c r="F52" s="7">
-        <v>-1</v>
-      </c>
       <c r="G52" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H52" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J52" s="7">
         <v>4</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>2</v>
       </c>
-      <c r="K52" s="16">
-        <v>1</v>
-      </c>
-      <c r="L52" s="7">
+      <c r="L52" s="16">
+        <v>1</v>
+      </c>
+      <c r="M52" s="7">
         <v>44</v>
       </c>
-      <c r="M52" s="14">
-        <v>1</v>
-      </c>
       <c r="N52" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O52" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P52" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="14">
         <v>-1</v>
       </c>
-      <c r="R52" s="7">
+      <c r="R52" s="14">
         <v>-1</v>
       </c>
       <c r="S52" s="7">
@@ -5347,16 +4926,16 @@
       <c r="T52" s="7">
         <v>-1</v>
       </c>
-      <c r="U52" s="21" t="str">
+      <c r="U52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V52" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V52" s="7">
+      <c r="W52" s="7">
         <v>44</v>
       </c>
-      <c r="W52" s="7">
-        <v>-1</v>
-      </c>
       <c r="X52" s="7">
         <v>-1</v>
       </c>
@@ -5366,56 +4945,59 @@
       <c r="Z52" s="7">
         <v>-1</v>
       </c>
-      <c r="AA52" s="21" t="str">
+      <c r="AA52" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB52" s="21" t="str">
         <f t="shared" si="3"/>
         <v>44,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="53" ht="16.8" spans="3:27">
+    <row r="53" spans="3:28">
       <c r="C53" s="7">
         <v>47</v>
       </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="7">
+      <c r="E53" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="7">
         <v>0</v>
       </c>
-      <c r="F53" s="7">
-        <v>-1</v>
-      </c>
       <c r="G53" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H53" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J53" s="7">
         <v>4</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>3</v>
       </c>
-      <c r="K53" s="14">
-        <v>1</v>
-      </c>
-      <c r="L53" s="7">
+      <c r="L53" s="14">
+        <v>1</v>
+      </c>
+      <c r="M53" s="7">
         <v>45</v>
       </c>
-      <c r="M53" s="14">
-        <v>1</v>
-      </c>
       <c r="N53" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O53" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P53" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="14">
         <v>-1</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53" s="14">
         <v>-1</v>
       </c>
       <c r="S53" s="7">
@@ -5424,16 +5006,16 @@
       <c r="T53" s="7">
         <v>-1</v>
       </c>
-      <c r="U53" s="21" t="str">
+      <c r="U53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V53" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V53" s="7">
+      <c r="W53" s="7">
         <v>45</v>
       </c>
-      <c r="W53" s="7">
-        <v>-1</v>
-      </c>
       <c r="X53" s="7">
         <v>-1</v>
       </c>
@@ -5443,56 +5025,59 @@
       <c r="Z53" s="7">
         <v>-1</v>
       </c>
-      <c r="AA53" s="21" t="str">
+      <c r="AA53" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB53" s="21" t="str">
         <f t="shared" si="3"/>
         <v>45,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="54" ht="16.8" spans="3:27">
+    <row r="54" spans="3:28">
       <c r="C54" s="7">
         <v>48</v>
       </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="7">
+      <c r="E54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="7">
         <v>0</v>
       </c>
-      <c r="F54" s="7">
-        <v>-1</v>
-      </c>
       <c r="G54" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H54" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J54" s="7">
         <v>4</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <v>3</v>
       </c>
-      <c r="K54" s="16">
-        <v>1</v>
-      </c>
-      <c r="L54" s="7">
+      <c r="L54" s="16">
+        <v>1</v>
+      </c>
+      <c r="M54" s="7">
         <v>46</v>
       </c>
-      <c r="M54" s="16">
-        <v>1</v>
-      </c>
-      <c r="N54" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O54" s="16">
-        <v>1</v>
-      </c>
-      <c r="P54" s="14">
-        <v>-1</v>
+      <c r="N54" s="16">
+        <v>1</v>
+      </c>
+      <c r="O54" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="16">
+        <v>1</v>
       </c>
       <c r="Q54" s="14">
         <v>-1</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="14">
         <v>-1</v>
       </c>
       <c r="S54" s="7">
@@ -5501,16 +5086,16 @@
       <c r="T54" s="7">
         <v>-1</v>
       </c>
-      <c r="U54" s="21" t="str">
+      <c r="U54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V54" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V54" s="7">
+      <c r="W54" s="7">
         <v>46</v>
       </c>
-      <c r="W54" s="7">
-        <v>-1</v>
-      </c>
       <c r="X54" s="7">
         <v>-1</v>
       </c>
@@ -5520,56 +5105,59 @@
       <c r="Z54" s="7">
         <v>-1</v>
       </c>
-      <c r="AA54" s="21" t="str">
+      <c r="AA54" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB54" s="21" t="str">
         <f t="shared" si="3"/>
         <v>46,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="55" ht="16.8" spans="3:27">
+    <row r="55" spans="3:28">
       <c r="C55" s="7">
         <v>49</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="7">
+      <c r="E55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="7">
         <v>0</v>
       </c>
-      <c r="F55" s="7">
-        <v>-1</v>
-      </c>
       <c r="G55" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H55" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J55" s="7">
         <v>4</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>4</v>
       </c>
-      <c r="K55" s="14">
-        <v>1</v>
-      </c>
-      <c r="L55" s="7">
+      <c r="L55" s="14">
+        <v>1</v>
+      </c>
+      <c r="M55" s="7">
         <v>47</v>
       </c>
-      <c r="M55" s="14">
-        <v>1</v>
-      </c>
       <c r="N55" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O55" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="14">
         <v>-1</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55" s="14">
         <v>-1</v>
       </c>
       <c r="S55" s="7">
@@ -5578,16 +5166,16 @@
       <c r="T55" s="7">
         <v>-1</v>
       </c>
-      <c r="U55" s="21" t="str">
+      <c r="U55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V55" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V55" s="7">
+      <c r="W55" s="7">
         <v>47</v>
       </c>
-      <c r="W55" s="7">
-        <v>-1</v>
-      </c>
       <c r="X55" s="7">
         <v>-1</v>
       </c>
@@ -5597,56 +5185,59 @@
       <c r="Z55" s="7">
         <v>-1</v>
       </c>
-      <c r="AA55" s="21" t="str">
+      <c r="AA55" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB55" s="21" t="str">
         <f t="shared" si="3"/>
         <v>47,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="56" ht="16.8" spans="3:27">
+    <row r="56" spans="3:28">
       <c r="C56" s="7">
         <v>50</v>
       </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="7">
+      <c r="E56" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="7">
         <v>0</v>
       </c>
-      <c r="F56" s="7">
-        <v>-1</v>
-      </c>
       <c r="G56" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H56" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J56" s="7">
         <v>4</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>4</v>
       </c>
-      <c r="K56" s="16">
-        <v>1</v>
-      </c>
-      <c r="L56" s="7">
+      <c r="L56" s="16">
+        <v>1</v>
+      </c>
+      <c r="M56" s="7">
         <v>48</v>
       </c>
-      <c r="M56" s="14">
-        <v>1</v>
-      </c>
       <c r="N56" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O56" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P56" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q56" s="14">
         <v>-1</v>
       </c>
-      <c r="R56" s="7">
+      <c r="R56" s="14">
         <v>-1</v>
       </c>
       <c r="S56" s="7">
@@ -5655,16 +5246,16 @@
       <c r="T56" s="7">
         <v>-1</v>
       </c>
-      <c r="U56" s="21" t="str">
+      <c r="U56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V56" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V56" s="7">
+      <c r="W56" s="7">
         <v>48</v>
       </c>
-      <c r="W56" s="7">
-        <v>-1</v>
-      </c>
       <c r="X56" s="7">
         <v>-1</v>
       </c>
@@ -5674,56 +5265,59 @@
       <c r="Z56" s="7">
         <v>-1</v>
       </c>
-      <c r="AA56" s="21" t="str">
+      <c r="AA56" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB56" s="21" t="str">
         <f t="shared" si="3"/>
         <v>48,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="57" ht="16.8" spans="3:27">
+    <row r="57" spans="3:28">
       <c r="C57" s="7">
         <v>51</v>
       </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="7">
+      <c r="E57" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="7">
         <v>0</v>
       </c>
-      <c r="F57" s="7">
-        <v>-1</v>
-      </c>
       <c r="G57" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H57" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J57" s="7">
         <v>4</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>5</v>
       </c>
-      <c r="K57" s="14">
-        <v>1</v>
-      </c>
-      <c r="L57" s="7">
+      <c r="L57" s="14">
+        <v>1</v>
+      </c>
+      <c r="M57" s="7">
         <v>49</v>
       </c>
-      <c r="M57" s="16">
-        <v>1</v>
-      </c>
-      <c r="N57" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O57" s="16">
-        <v>1</v>
-      </c>
-      <c r="P57" s="14">
-        <v>-1</v>
+      <c r="N57" s="16">
+        <v>1</v>
+      </c>
+      <c r="O57" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="16">
+        <v>1</v>
       </c>
       <c r="Q57" s="14">
         <v>-1</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R57" s="14">
         <v>-1</v>
       </c>
       <c r="S57" s="7">
@@ -5732,16 +5326,16 @@
       <c r="T57" s="7">
         <v>-1</v>
       </c>
-      <c r="U57" s="21" t="str">
+      <c r="U57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V57" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V57" s="7">
+      <c r="W57" s="7">
         <v>49</v>
       </c>
-      <c r="W57" s="7">
-        <v>-1</v>
-      </c>
       <c r="X57" s="7">
         <v>-1</v>
       </c>
@@ -5751,56 +5345,59 @@
       <c r="Z57" s="7">
         <v>-1</v>
       </c>
-      <c r="AA57" s="21" t="str">
+      <c r="AA57" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB57" s="21" t="str">
         <f t="shared" si="3"/>
         <v>49,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="58" ht="16.8" spans="3:27">
+    <row r="58" spans="3:28">
       <c r="C58" s="7">
         <v>52</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="7">
+      <c r="E58" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="7">
         <v>0</v>
       </c>
-      <c r="F58" s="7">
-        <v>-1</v>
-      </c>
       <c r="G58" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H58" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J58" s="7">
         <v>4</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>5</v>
       </c>
-      <c r="K58" s="16">
-        <v>1</v>
-      </c>
-      <c r="L58" s="7">
+      <c r="L58" s="16">
+        <v>1</v>
+      </c>
+      <c r="M58" s="7">
         <v>50</v>
       </c>
-      <c r="M58" s="14">
-        <v>1</v>
-      </c>
       <c r="N58" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O58" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P58" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="14">
         <v>-1</v>
       </c>
-      <c r="R58" s="7">
+      <c r="R58" s="14">
         <v>-1</v>
       </c>
       <c r="S58" s="7">
@@ -5809,16 +5406,16 @@
       <c r="T58" s="7">
         <v>-1</v>
       </c>
-      <c r="U58" s="21" t="str">
+      <c r="U58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V58" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V58" s="7">
+      <c r="W58" s="7">
         <v>50</v>
       </c>
-      <c r="W58" s="7">
-        <v>-1</v>
-      </c>
       <c r="X58" s="7">
         <v>-1</v>
       </c>
@@ -5828,56 +5425,59 @@
       <c r="Z58" s="7">
         <v>-1</v>
       </c>
-      <c r="AA58" s="21" t="str">
+      <c r="AA58" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB58" s="21" t="str">
         <f t="shared" si="3"/>
         <v>50,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="59" ht="16.8" spans="3:27">
+    <row r="59" spans="3:28">
       <c r="C59" s="7">
         <v>53</v>
       </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="7">
+      <c r="E59" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="7">
         <v>0</v>
       </c>
-      <c r="F59" s="7">
-        <v>-1</v>
-      </c>
       <c r="G59" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H59" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J59" s="7">
         <v>4</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K59" s="1">
         <v>6</v>
       </c>
-      <c r="K59" s="14">
-        <v>1</v>
-      </c>
-      <c r="L59" s="7">
+      <c r="L59" s="14">
+        <v>1</v>
+      </c>
+      <c r="M59" s="7">
         <v>51</v>
       </c>
-      <c r="M59" s="14">
-        <v>1</v>
-      </c>
       <c r="N59" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O59" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P59" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="14">
         <v>-1</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59" s="14">
         <v>-1</v>
       </c>
       <c r="S59" s="7">
@@ -5886,16 +5486,16 @@
       <c r="T59" s="7">
         <v>-1</v>
       </c>
-      <c r="U59" s="21" t="str">
+      <c r="U59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V59" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V59" s="7">
+      <c r="W59" s="7">
         <v>51</v>
       </c>
-      <c r="W59" s="7">
-        <v>-1</v>
-      </c>
       <c r="X59" s="7">
         <v>-1</v>
       </c>
@@ -5905,56 +5505,59 @@
       <c r="Z59" s="7">
         <v>-1</v>
       </c>
-      <c r="AA59" s="21" t="str">
+      <c r="AA59" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB59" s="21" t="str">
         <f t="shared" si="3"/>
         <v>51,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="60" ht="16.8" spans="3:27">
+    <row r="60" spans="3:28">
       <c r="C60" s="7">
         <v>54</v>
       </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="7">
+      <c r="E60" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="7">
         <v>0</v>
       </c>
-      <c r="F60" s="7">
-        <v>-1</v>
-      </c>
       <c r="G60" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H60" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J60" s="7">
         <v>4</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K60" s="1">
         <v>6</v>
       </c>
-      <c r="K60" s="16">
-        <v>1</v>
-      </c>
-      <c r="L60" s="7">
+      <c r="L60" s="16">
+        <v>1</v>
+      </c>
+      <c r="M60" s="7">
         <v>52</v>
       </c>
-      <c r="M60" s="16">
-        <v>1</v>
-      </c>
-      <c r="N60" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O60" s="16">
-        <v>1</v>
-      </c>
-      <c r="P60" s="14">
-        <v>-1</v>
+      <c r="N60" s="16">
+        <v>1</v>
+      </c>
+      <c r="O60" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="16">
+        <v>1</v>
       </c>
       <c r="Q60" s="14">
         <v>-1</v>
       </c>
-      <c r="R60" s="7">
+      <c r="R60" s="14">
         <v>-1</v>
       </c>
       <c r="S60" s="7">
@@ -5963,16 +5566,16 @@
       <c r="T60" s="7">
         <v>-1</v>
       </c>
-      <c r="U60" s="21" t="str">
+      <c r="U60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V60" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V60" s="7">
+      <c r="W60" s="7">
         <v>52</v>
       </c>
-      <c r="W60" s="7">
-        <v>-1</v>
-      </c>
       <c r="X60" s="7">
         <v>-1</v>
       </c>
@@ -5982,56 +5585,59 @@
       <c r="Z60" s="7">
         <v>-1</v>
       </c>
-      <c r="AA60" s="21" t="str">
+      <c r="AA60" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB60" s="21" t="str">
         <f t="shared" si="3"/>
         <v>52,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="61" ht="16.8" spans="3:27">
+    <row r="61" spans="3:28">
       <c r="C61" s="7">
         <v>55</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="7">
+      <c r="E61" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="7">
         <v>0</v>
       </c>
-      <c r="F61" s="7">
-        <v>-1</v>
-      </c>
       <c r="G61" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H61" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J61" s="7">
         <v>4</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <v>7</v>
       </c>
-      <c r="K61" s="14">
-        <v>1</v>
-      </c>
-      <c r="L61" s="7">
+      <c r="L61" s="14">
+        <v>1</v>
+      </c>
+      <c r="M61" s="7">
         <v>53</v>
       </c>
-      <c r="M61" s="14">
-        <v>1</v>
-      </c>
       <c r="N61" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O61" s="14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P61" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="14">
         <v>-1</v>
       </c>
-      <c r="R61" s="7">
+      <c r="R61" s="14">
         <v>-1</v>
       </c>
       <c r="S61" s="7">
@@ -6040,16 +5646,16 @@
       <c r="T61" s="7">
         <v>-1</v>
       </c>
-      <c r="U61" s="21" t="str">
+      <c r="U61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V61" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V61" s="7">
+      <c r="W61" s="7">
         <v>53</v>
       </c>
-      <c r="W61" s="7">
-        <v>-1</v>
-      </c>
       <c r="X61" s="7">
         <v>-1</v>
       </c>
@@ -6059,56 +5665,59 @@
       <c r="Z61" s="7">
         <v>-1</v>
       </c>
-      <c r="AA61" s="21" t="str">
+      <c r="AA61" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB61" s="21" t="str">
         <f t="shared" si="3"/>
         <v>53,-1,-1,-1,-1</v>
       </c>
     </row>
-    <row r="62" ht="16.8" spans="3:27">
+    <row r="62" spans="3:28">
       <c r="C62" s="7">
         <v>56</v>
       </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="7">
+      <c r="E62" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="7">
         <v>0</v>
       </c>
-      <c r="F62" s="7">
-        <v>-1</v>
-      </c>
       <c r="G62" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H62" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="J62" s="7">
         <v>4</v>
       </c>
-      <c r="J62" s="17">
+      <c r="K62" s="17">
         <v>7</v>
       </c>
-      <c r="K62" s="16">
-        <v>1</v>
-      </c>
-      <c r="L62" s="7">
+      <c r="L62" s="16">
+        <v>1</v>
+      </c>
+      <c r="M62" s="7">
         <v>54</v>
       </c>
-      <c r="M62" s="14">
-        <v>1</v>
-      </c>
       <c r="N62" s="14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O62" s="14">
-        <v>1</v>
-      </c>
-      <c r="P62" s="18">
-        <v>-1</v>
-      </c>
-      <c r="Q62" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="18">
+        <v>-1</v>
+      </c>
+      <c r="R62" s="14">
         <v>-1</v>
       </c>
       <c r="S62" s="7">
@@ -6117,16 +5726,16 @@
       <c r="T62" s="7">
         <v>-1</v>
       </c>
-      <c r="U62" s="21" t="str">
+      <c r="U62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V62" s="21" t="str">
         <f t="shared" si="2"/>
         <v>-1,-1,-1,-1,-1</v>
       </c>
-      <c r="V62" s="7">
+      <c r="W62" s="7">
         <v>54</v>
       </c>
-      <c r="W62" s="7">
-        <v>-1</v>
-      </c>
       <c r="X62" s="7">
         <v>-1</v>
       </c>
@@ -6136,17 +5745,20 @@
       <c r="Z62" s="7">
         <v>-1</v>
       </c>
-      <c r="AA62" s="21" t="str">
+      <c r="AA62" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AB62" s="21" t="str">
         <f t="shared" si="3"/>
         <v>54,-1,-1,-1,-1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/Talent.xlsx
+++ b/config/excel/Talent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB843F1-5ACC-4E67-A68A-8C91C45FABAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B303A4-796B-4017-9960-A154DE01F3BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -250,12 +250,33 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SKH5001</t>
-  </si>
-  <si>
     <t>上一层激活天赋
 总等级限制</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKH4503</t>
+  </si>
+  <si>
+    <t>SKH4505</t>
+  </si>
+  <si>
+    <t>SKH5605</t>
+  </si>
+  <si>
+    <t>SKH4604</t>
+  </si>
+  <si>
+    <t>SKH5007</t>
+  </si>
+  <si>
+    <t>SKH5006</t>
+  </si>
+  <si>
+    <t>SKH4803</t>
+  </si>
+  <si>
+    <t>SKH6001</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1129,7 @@
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -1382,7 +1403,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
@@ -1462,7 +1483,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7">
         <v>0</v>
@@ -1542,7 +1563,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F9" s="7">
         <v>0</v>
@@ -1622,7 +1643,7 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -1702,7 +1723,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7">
         <v>0</v>
@@ -1782,7 +1803,7 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -1862,7 +1883,7 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -1942,7 +1963,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>

--- a/config/excel/Talent.xlsx
+++ b/config/excel/Talent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B303A4-796B-4017-9960-A154DE01F3BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E8D398-BA12-45E3-8EC1-6677B5C75506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talent" sheetId="2" r:id="rId1"/>
@@ -998,9 +998,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1898,7 +1898,7 @@
         <v>-1</v>
       </c>
       <c r="J13" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13" s="7">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K14" s="7">
         <v>1</v>
